--- a/gd/副本内容设计/副本设计-火山、巢穴.xlsx
+++ b/gd/副本内容设计/副本设计-火山、巢穴.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26207"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/gd/副本内容设计/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="2220" windowWidth="27390" windowHeight="16140" activeTab="2"/>
+    <workbookView xWindow="38280" yWindow="520" windowWidth="28800" windowHeight="17540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="4" r:id="rId1"/>
@@ -13,12 +18,17 @@
     <sheet name="boss局设计" sheetId="3" r:id="rId4"/>
     <sheet name="Boss美术需求" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="729">
   <si>
     <t>怪物1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2022,10 +2032,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>绞刑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>事件触发：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2191,10 +2197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>龙吟：被动型，攻击所有敌人并一定几率附带减速效果。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>事件触发：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2267,10 +2269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>潮汐之盾：对自身施加物理+法术减免护盾，减少99%受到的伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2个状态：状态1，冻结状态，初始状态为冻结状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2417,10 +2415,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（如果有会驱散增益的宠物，boss难度将大幅下降）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如果打角占整场战斗时间15%左右</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2453,14 +2447,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>疯狂敲打：主动型，3秒20次（npc5次）物理伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翎羽飞射：被动型，攻击敌方全体，造成法术伤害，并提高自身速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>炽热急速：法攻释放一定几率提高自身速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2473,10 +2459,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魅影突袭：主动型，30秒6次，一定几率附加力量下降</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阴魂不散：死亡时，对敌方全体进行伤害并附加物攻下降。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2485,14 +2467,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>窒息之流：法术攻击30%概率对目标附加水泡buff，中此buff的怪物受到伤害时，有20%概率眩晕1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窒息漩涡：被动型：对目标单体释放水属性伤害并附加水泡buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>偏增益</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2504,23 +2478,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>裂魂新星：主动型，30秒5次，造成法术伤害，如果此伤害导致目标死亡，死亡目标所在队伍剩余场上宠物物攻下降（死亡反应由被动配置）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净化烈火：被动型。对敌方单体施加火属性强伤害，并附加驱散增益buff效果。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>偏法攻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>烈焰迸发：法攻一定几率点燃敌方战场，群体附加火属性弱dot伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撕扯伤口：主动型，3秒20次，如果被攻击目标身上有Debuff，则附加物理中dot。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2827,173 +2789,225 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>30%战斗时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占总战斗时间10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛进闪：进场时，全体友方速度提升2回合。自身受到buff加成时（有beneficial标签的都算加成），法攻技能造成伤害时再附加一个强伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招会被眩晕打断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰护甲死亡时，若左翼冰晶或者右翼冰晶存活，则产生事件，暂停战斗序列，进行动画播放boss修复冰霜护甲，冰霜护甲转化为状态1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进场时，全体友方速度提升2回合。自身受到buff加成时（有beneficial标签的都算加成），法攻技能造成伤害时再附加一个强伤害。</t>
+  </si>
+  <si>
+    <t>猛进闪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对单体造成暗属性法术伤害，并对目标施加死亡印记buff，持续2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置 绞刑计时器=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡印记计时器+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若绞刑计时器=1，绞刑计时器=0，施放绞刑，return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置 死亡印记计时器=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角刺计数器+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若左角或者右角存活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置 角刺计数器=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当角刺计数器&gt;=7时，角刺计数器=0，使用角刺技能，随机目标，return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（新需求，驱散某idbuff，其实也不一定用技能，脚本可以直接驱散也行）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用小怪技能，主动型，5次，造成法术伤害，如果此伤害导致目标死亡，死亡目标所在队伍剩余场上宠物物攻下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸前寒冰护甲破碎，boss以寒冰护甲处为受力点做后仰。3秒内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若死亡印记计时器&gt;=5，则死亡印记计时器=0，绞刑计时器=1，释放死亡印记，return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若右臂处于状态1，右臂恢复计数器+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当吃活的计数器&gt;=7时，吃活的计数器=0，使用吃活的！技能，若场上有敌对目标有角刺带来的流血buff，则目标改为有流血buff的目标，return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置 吃活的计数器=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃活的计数器+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss被击晕时，心脏弱点转化为状态1，击晕buff结束时，心脏弱点转化为冻结状态.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化烈火：被动型。对敌方单体施加火属性强伤害，并附加驱散增益buff效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金羽毛3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（考虑一下血条表现）</t>
+  </si>
+  <si>
+    <t>去掉</t>
+  </si>
+  <si>
+    <t>美术需求保留</t>
+  </si>
+  <si>
+    <t>设计得改</t>
+  </si>
+  <si>
+    <t>类似羽毛都打掉就可以回复大量HP</t>
+  </si>
+  <si>
+    <t>考虑把羽毛长回来。</t>
+  </si>
+  <si>
+    <t>如何目标？</t>
+  </si>
+  <si>
+    <t>（可能改为打中心是哭泣状态）</t>
+  </si>
+  <si>
+    <t>（如果有会驱散增益的宠物，boss难度将大幅下降）</t>
+  </si>
+  <si>
+    <t>翎羽飞射：被动型，攻击敌方全体，造成法术伤害，并提高自身速度</t>
+  </si>
+  <si>
+    <t>魅影突袭：主动型，30秒6次，一定几率附加力量下降</t>
+  </si>
+  <si>
+    <t>净化烈火：被动型。对敌方单体施加火属性强伤害，并附加驱散增益buff效果。</t>
+  </si>
+  <si>
+    <t>吃活的!：攻击单体目标造成物理伤害，当目标有流血buff时，大量回复生命。</t>
+  </si>
+  <si>
+    <t>角刺：对目标造成物理伤害，并附加弱流血效果（非通用），持续2回合</t>
+  </si>
+  <si>
     <t>地裂山崩：主动型，3秒20次物理攻击（Npc 5次），一定几率附加溅射伤害，对敌方全体再造成少量物理伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30%战斗时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占总战斗时间10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猛进闪：进场时，全体友方速度提升2回合。自身受到buff加成时（有beneficial标签的都算加成），法攻技能造成伤害时再附加一个强伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙吟：被动型，攻击所有敌人并一定几率附带减速效果。</t>
+  </si>
+  <si>
+    <t>潮汐之盾：对自身施加物理+法术减免护盾，减少99%受到的伤害。</t>
+  </si>
+  <si>
+    <t>须左之炎</t>
+  </si>
+  <si>
+    <t>5次法术伤害，如果自身有buff加成时（有beneficial标签的都算加成），伤害翻倍（switch另外一个effect）。</t>
   </si>
   <si>
     <t>须左之炎：主动型：3秒20次（NPC 5次）法术伤害，如果自身有buff加成时（有beneficial标签的都算加成），伤害翻倍（switch另外一个effect）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂魂新星：主动型，30秒5次，造成法术伤害，如果此伤害导致目标死亡，死亡目标所在队伍剩余场上宠物物攻下降（死亡反应由被动配置）</t>
+  </si>
+  <si>
+    <t>绞刑</t>
+  </si>
+  <si>
+    <t>对敌方全体造成法攻伤害，有死亡印记的造成大量伤害（T生命力百分之80左右伤害），每5回合使用一次</t>
+  </si>
+  <si>
+    <t>疯狂敲打：主动型，3秒20次（npc5次）物理伤害</t>
+  </si>
+  <si>
+    <t>撕扯伤口：主动型，3秒20次，如果被攻击目标身上有Debuff，则附加物理中dot。</t>
+  </si>
+  <si>
+    <t>窒息之流：法术攻击30%概率对目标附加水泡buff，中此buff的怪物受到伤害时，有20%概率眩晕1回合</t>
+  </si>
+  <si>
+    <t>窒息漩涡：被动型：对目标单体释放水属性伤害并附加水泡buff</t>
   </si>
   <si>
     <t>天火燎原：被动型，群体伤害，每个敌人分别判断身上是否附加火属性弱dot，如果有则造成双倍伤害（换一个effect）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招会被眩晕打断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒冰护甲死亡时，若左翼冰晶或者右翼冰晶存活，则产生事件，暂停战斗序列，进行动画播放boss修复冰霜护甲，冰霜护甲转化为状态1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进场时，全体友方速度提升2回合。自身受到buff加成时（有beneficial标签的都算加成），法攻技能造成伤害时再附加一个强伤害。</t>
-  </si>
-  <si>
-    <t>须左之炎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5次法术伤害，如果自身有buff加成时（有beneficial标签的都算加成），伤害翻倍（switch另外一个effect）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猛进闪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对单体造成暗属性法术伤害，并对目标施加死亡印记buff，持续2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置 绞刑计时器=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对敌方全体造成法攻伤害，有死亡印记的造成大量伤害（T生命力百分之80左右伤害），每5回合使用一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡印记计时器+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若绞刑计时器=1，绞刑计时器=0，施放绞刑，return</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置 死亡印记计时器=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角刺计数器+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若左角或者右角存活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃活的!：攻击单体目标造成物理伤害，当目标有流血buff时，大量回复生命。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置 角刺计数器=4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当角刺计数器&gt;=7时，角刺计数器=0，使用角刺技能，随机目标，return</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（新需求，驱散某idbuff，其实也不一定用技能，脚本可以直接驱散也行）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复用小怪技能，主动型，5次，造成法术伤害，如果此伤害导致目标死亡，死亡目标所在队伍剩余场上宠物物攻下降</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角刺：对目标造成物理伤害，并附加弱流血效果（非通用），持续2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胸前寒冰护甲破碎，boss以寒冰护甲处为受力点做后仰。3秒内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若死亡印记计时器&gt;=5，则死亡印记计时器=0，绞刑计时器=1，释放死亡印记，return</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>若右臂处于状态1，右臂恢复计数器+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当吃活的计数器&gt;=7时，吃活的计数器=0，使用吃活的！技能，若场上有敌对目标有角刺带来的流血buff，则目标改为有流血buff的目标，return</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置 吃活的计数器=3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃活的计数器+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boss被击晕时，心脏弱点转化为状态1，击晕buff结束时，心脏弱点转化为冻结状态.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净化烈火：被动型。对敌方单体施加火属性强伤害，并附加驱散增益buff效果。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金羽毛3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3016,7 +3030,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3025,7 +3039,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3033,14 +3047,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3569,8 +3583,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="差 2" xfId="2"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 18" xfId="5"/>
     <cellStyle name="常规 2 4" xfId="8"/>
@@ -3621,8 +3635,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2708910" y="105167430"/>
-          <a:ext cx="2475074" cy="1794510"/>
+          <a:off x="2706793" y="106227880"/>
+          <a:ext cx="2478249" cy="1813560"/>
           <a:chOff x="1889760" y="15841980"/>
           <a:chExt cx="2061689" cy="1760220"/>
         </a:xfrm>
@@ -4388,8 +4402,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3135630" y="124011690"/>
-          <a:ext cx="5633872" cy="2529840"/>
+          <a:off x="3133513" y="125262640"/>
+          <a:ext cx="5584131" cy="2555240"/>
           <a:chOff x="1988820" y="35029140"/>
           <a:chExt cx="4896637" cy="2484120"/>
         </a:xfrm>
@@ -4915,8 +4929,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9696450" y="89554050"/>
-          <a:ext cx="2343150" cy="2295525"/>
+          <a:off x="9623425" y="90457867"/>
+          <a:ext cx="2311400" cy="2318808"/>
           <a:chOff x="9029700" y="36328350"/>
           <a:chExt cx="2343150" cy="2295525"/>
         </a:xfrm>
@@ -5475,8 +5489,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9039225" y="74837925"/>
-          <a:ext cx="3473687" cy="2457450"/>
+          <a:off x="8976783" y="75593575"/>
+          <a:ext cx="3420771" cy="2480733"/>
           <a:chOff x="5581650" y="27422475"/>
           <a:chExt cx="3473687" cy="2457450"/>
         </a:xfrm>
@@ -6046,8 +6060,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10153650" y="1819275"/>
-          <a:ext cx="3438525" cy="3164812"/>
+          <a:off x="10080625" y="1836208"/>
+          <a:ext cx="3375025" cy="3196562"/>
           <a:chOff x="10153650" y="1819275"/>
           <a:chExt cx="3438525" cy="3164812"/>
         </a:xfrm>
@@ -6326,16 +6340,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>205318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>133055</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>598721</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>3176</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -6344,8 +6358,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8486775" y="28860750"/>
-          <a:ext cx="2514305" cy="3362325"/>
+          <a:off x="10212917" y="29203651"/>
+          <a:ext cx="2471971" cy="3396192"/>
           <a:chOff x="7820025" y="28441650"/>
           <a:chExt cx="2514305" cy="3362325"/>
         </a:xfrm>
@@ -6979,8 +6993,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8382000" y="51015900"/>
-          <a:ext cx="2581275" cy="2343150"/>
+          <a:off x="8330142" y="51530250"/>
+          <a:ext cx="2538941" cy="2366433"/>
           <a:chOff x="7810500" y="43053000"/>
           <a:chExt cx="2581275" cy="2343150"/>
         </a:xfrm>
@@ -7562,8 +7576,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9264015" y="44074080"/>
-          <a:ext cx="4548628" cy="3725723"/>
+          <a:off x="9201573" y="44518580"/>
+          <a:ext cx="4474545" cy="3763823"/>
           <a:chOff x="6766560" y="39159180"/>
           <a:chExt cx="4095238" cy="3657143"/>
         </a:xfrm>
@@ -7944,16 +7958,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>502073</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>207856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>296333</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
+      <xdr:rowOff>62865</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7962,8 +7976,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7454265" y="22513290"/>
-          <a:ext cx="4461510" cy="3629025"/>
+          <a:off x="9963573" y="22644523"/>
+          <a:ext cx="4387427" cy="3665009"/>
           <a:chOff x="6324600" y="21008340"/>
           <a:chExt cx="4008120" cy="3541395"/>
         </a:xfrm>
@@ -8213,8 +8227,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8989695" y="59961780"/>
-          <a:ext cx="4598670" cy="3661410"/>
+          <a:off x="8927253" y="60567147"/>
+          <a:ext cx="4524587" cy="3697393"/>
           <a:chOff x="6850380" y="58232040"/>
           <a:chExt cx="4145280" cy="3596640"/>
         </a:xfrm>
@@ -8872,8 +8886,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3417570" y="126832508"/>
-          <a:ext cx="396240" cy="547222"/>
+          <a:off x="3415453" y="128113091"/>
+          <a:ext cx="396240" cy="551456"/>
           <a:chOff x="7338060" y="30245198"/>
           <a:chExt cx="396240" cy="539602"/>
         </a:xfrm>
@@ -9013,6 +9027,44 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>296333</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>437429</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>150284</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9757833" y="10498667"/>
+          <a:ext cx="2109596" cy="2139950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9038,8 +9090,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9652188" y="2483223"/>
-          <a:ext cx="2061689" cy="1684805"/>
+          <a:off x="9610913" y="2559423"/>
+          <a:ext cx="2061689" cy="1719730"/>
           <a:chOff x="1889760" y="15841980"/>
           <a:chExt cx="2061689" cy="1760220"/>
         </a:xfrm>
@@ -10004,8 +10056,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6920753" y="9559177"/>
-          <a:ext cx="5333106" cy="2236471"/>
+          <a:off x="6882653" y="9879852"/>
+          <a:ext cx="5329931" cy="2331721"/>
           <a:chOff x="1988820" y="35029140"/>
           <a:chExt cx="4896637" cy="2484120"/>
         </a:xfrm>
@@ -11154,26 +11206,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>38</v>
       </c>
@@ -11188,7 +11240,7 @@
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -11199,7 +11251,7 @@
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:9" ht="17.25">
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>39</v>
       </c>
@@ -11214,7 +11266,7 @@
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11"/>
@@ -11225,7 +11277,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>40</v>
       </c>
@@ -11240,7 +11292,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="11"/>
@@ -11251,7 +11303,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" ht="17.25" thickBot="1">
+    <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>42</v>
       </c>
@@ -11264,7 +11316,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="17.25" thickTop="1">
+    <row r="8" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="59" t="s">
         <v>42</v>
@@ -11279,7 +11331,7 @@
       <c r="H8" s="62"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5">
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="15" t="s">
         <v>44</v>
@@ -11292,7 +11344,7 @@
       <c r="H9" s="56"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="15" t="s">
         <v>45</v>
@@ -11305,7 +11357,7 @@
       <c r="H10" s="65"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="15" t="s">
         <v>46</v>
@@ -11318,7 +11370,7 @@
       <c r="H11" s="68"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="16.5">
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="15" t="s">
         <v>47</v>
@@ -11331,7 +11383,7 @@
       <c r="H12" s="56"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5">
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="15" t="s">
         <v>48</v>
@@ -11346,7 +11398,7 @@
       <c r="H13" s="56"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5">
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="15" t="s">
         <v>49</v>
@@ -11359,7 +11411,7 @@
       <c r="H14" s="56"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" ht="17.25" thickBot="1">
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="18" t="s">
         <v>50</v>
@@ -11372,7 +11424,7 @@
       <c r="H15" s="58"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9" ht="17.25" thickTop="1">
+    <row r="16" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
@@ -11383,7 +11435,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5">
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>51</v>
       </c>
@@ -11408,7 +11460,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5">
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
         <v>433</v>
       </c>
@@ -11441,33 +11493,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="8.75" style="2"/>
-    <col min="5" max="5" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="8.6640625" style="2"/>
+    <col min="5" max="5" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="2"/>
+    <col min="7" max="7" width="8.6640625" style="2"/>
     <col min="8" max="8" width="33.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.75" style="2"/>
+    <col min="9" max="9" width="8.6640625" style="2"/>
     <col min="10" max="10" width="33.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="2"/>
-    <col min="12" max="12" width="33.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.75" style="2"/>
+    <col min="11" max="11" width="8.6640625" style="2"/>
+    <col min="12" max="12" width="33.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D2" s="3" t="s">
         <v>28</v>
       </c>
@@ -11475,7 +11527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
@@ -11483,7 +11535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D4" s="3" t="s">
         <v>29</v>
       </c>
@@ -11491,7 +11543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
@@ -11499,7 +11551,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D6" s="3"/>
       <c r="E6" s="25" t="s">
         <v>63</v>
@@ -11526,7 +11578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D7" s="31" t="s">
         <v>93</v>
       </c>
@@ -11554,7 +11606,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D8" s="31" t="s">
         <v>94</v>
       </c>
@@ -11582,7 +11634,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D9" s="31" t="s">
         <v>95</v>
       </c>
@@ -11610,7 +11662,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D10" s="31" t="s">
         <v>96</v>
       </c>
@@ -11638,7 +11690,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D11" s="31" t="s">
         <v>97</v>
       </c>
@@ -11666,7 +11718,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D12" s="31" t="s">
         <v>98</v>
       </c>
@@ -11693,7 +11745,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="31" customFormat="1">
+    <row r="13" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D13" s="31" t="s">
         <v>99</v>
       </c>
@@ -11720,7 +11772,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="31" customFormat="1">
+    <row r="14" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D14" s="31" t="s">
         <v>100</v>
       </c>
@@ -11747,25 +11799,25 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="31" customFormat="1">
+    <row r="15" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="4:12">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="4:12">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D18" s="5"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="20" spans="4:12">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
         <v>28</v>
       </c>
@@ -11773,7 +11825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="4:12">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
@@ -11781,7 +11833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="4:12">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D22" s="3" t="s">
         <v>29</v>
       </c>
@@ -11789,7 +11841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="4:12">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D23" s="3" t="s">
         <v>6</v>
       </c>
@@ -11797,7 +11849,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="4:12">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D24" s="6"/>
       <c r="E24" s="25" t="s">
         <v>63</v>
@@ -11824,7 +11876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="4:12">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D25" s="5" t="s">
         <v>122</v>
       </c>
@@ -11852,7 +11904,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="4:12">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D26" s="5" t="s">
         <v>123</v>
       </c>
@@ -11880,7 +11932,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="4:12">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D27" s="5" t="s">
         <v>124</v>
       </c>
@@ -11908,7 +11960,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="4:12">
+    <row r="28" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D28" s="5" t="s">
         <v>125</v>
       </c>
@@ -11936,7 +11988,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="29" spans="4:12">
+    <row r="29" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D29" s="5" t="s">
         <v>126</v>
       </c>
@@ -11964,7 +12016,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="4:12" s="31" customFormat="1">
+    <row r="30" spans="4:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D30" s="5" t="s">
         <v>127</v>
       </c>
@@ -11991,7 +12043,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="4:12" s="31" customFormat="1">
+    <row r="31" spans="4:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D31" s="5" t="s">
         <v>128</v>
       </c>
@@ -12015,10 +12067,10 @@
         <v>2</v>
       </c>
       <c r="L31" s="51" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="32" spans="4:12" s="31" customFormat="1">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="32" spans="4:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D32" s="5" t="s">
         <v>129</v>
       </c>
@@ -12045,51 +12097,51 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D34" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D35" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="25"/>
       <c r="C38" s="24"/>
       <c r="F38" s="24"/>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C40" s="24"/>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C43" s="24"/>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C45" s="24"/>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C46" s="24"/>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C47" s="24"/>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C48" s="24"/>
     </row>
-    <row r="49" spans="3:3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C49" s="24"/>
     </row>
   </sheetData>
@@ -12100,21 +12152,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G132" sqref="G132"/>
+    <sheetView topLeftCell="C158" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="2"/>
-    <col min="2" max="2" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.75" style="2"/>
+    <col min="1" max="1" width="8.6640625" style="2"/>
+    <col min="2" max="2" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="9" customFormat="1">
+    <row r="1" spans="2:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="29" t="s">
         <v>68</v>
       </c>
@@ -12131,7 +12183,7 @@
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
     </row>
-    <row r="2" spans="2:16" s="9" customFormat="1">
+    <row r="2" spans="2:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="29"/>
       <c r="C2" s="29" t="s">
         <v>69</v>
@@ -12148,7 +12200,7 @@
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
     </row>
-    <row r="3" spans="2:16" s="9" customFormat="1">
+    <row r="3" spans="2:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29" t="s">
@@ -12165,7 +12217,7 @@
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
     </row>
-    <row r="4" spans="2:16" s="9" customFormat="1">
+    <row r="4" spans="2:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29" t="s">
@@ -12182,7 +12234,7 @@
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
     </row>
-    <row r="5" spans="2:16" s="9" customFormat="1">
+    <row r="5" spans="2:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="29"/>
       <c r="C5" s="29" t="s">
         <v>72</v>
@@ -12199,7 +12251,7 @@
       <c r="M5" s="29"/>
       <c r="N5" s="29"/>
     </row>
-    <row r="6" spans="2:16" s="9" customFormat="1">
+    <row r="6" spans="2:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
@@ -12216,7 +12268,7 @@
       <c r="M6" s="29"/>
       <c r="N6" s="29"/>
     </row>
-    <row r="7" spans="2:16" s="9" customFormat="1">
+    <row r="7" spans="2:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
@@ -12233,7 +12285,7 @@
       <c r="M7" s="29"/>
       <c r="N7" s="29"/>
     </row>
-    <row r="8" spans="2:16" s="9" customFormat="1">
+    <row r="8" spans="2:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
@@ -12250,7 +12302,7 @@
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
     </row>
-    <row r="9" spans="2:16" s="9" customFormat="1">
+    <row r="9" spans="2:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="29"/>
       <c r="C9" s="29" t="s">
         <v>76</v>
@@ -12267,7 +12319,7 @@
       <c r="M9" s="29"/>
       <c r="N9" s="29"/>
     </row>
-    <row r="10" spans="2:16" s="9" customFormat="1">
+    <row r="10" spans="2:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
@@ -12284,7 +12336,7 @@
       <c r="M10" s="29"/>
       <c r="N10" s="29"/>
     </row>
-    <row r="11" spans="2:16" s="9" customFormat="1">
+    <row r="11" spans="2:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
@@ -12301,7 +12353,7 @@
       <c r="M11" s="29"/>
       <c r="N11" s="29"/>
     </row>
-    <row r="12" spans="2:16" s="9" customFormat="1">
+    <row r="12" spans="2:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="29"/>
       <c r="C12" s="29" t="s">
         <v>79</v>
@@ -12318,7 +12370,7 @@
       <c r="M12" s="29"/>
       <c r="N12" s="29"/>
     </row>
-    <row r="13" spans="2:16" s="9" customFormat="1">
+    <row r="13" spans="2:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
@@ -12335,7 +12387,7 @@
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="29"/>
       <c r="C14" s="29" t="s">
         <v>81</v>
@@ -12354,7 +12406,7 @@
       <c r="O14" s="27"/>
       <c r="P14" s="27"/>
     </row>
-    <row r="15" spans="2:16" s="9" customFormat="1">
+    <row r="15" spans="2:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="29"/>
       <c r="C15" s="29" t="s">
         <v>82</v>
@@ -12373,7 +12425,7 @@
       <c r="O15" s="29"/>
       <c r="P15" s="29"/>
     </row>
-    <row r="16" spans="2:16" s="31" customFormat="1">
+    <row r="16" spans="2:16" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
@@ -12390,12 +12442,12 @@
       <c r="O16" s="32"/>
       <c r="P16" s="32"/>
     </row>
-    <row r="17" spans="2:16" s="34" customFormat="1">
+    <row r="17" spans="2:16" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="34" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18" s="29" t="s">
         <v>150</v>
       </c>
@@ -12418,7 +12470,7 @@
       <c r="O18" s="29"/>
       <c r="P18" s="29"/>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19" s="29"/>
       <c r="C19" s="30" t="s">
         <v>84</v>
@@ -12439,7 +12491,7 @@
       <c r="O19" s="29"/>
       <c r="P19" s="29"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20" s="29"/>
       <c r="C20" s="30" t="s">
         <v>85</v>
@@ -12460,7 +12512,7 @@
       <c r="O20" s="29"/>
       <c r="P20" s="29"/>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21" s="29"/>
       <c r="C21" s="30" t="s">
         <v>86</v>
@@ -12481,7 +12533,7 @@
       <c r="O21" s="29"/>
       <c r="P21" s="29"/>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22" s="29"/>
       <c r="C22" s="30" t="s">
         <v>87</v>
@@ -12502,7 +12554,7 @@
       <c r="O22" s="29"/>
       <c r="P22" s="29"/>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23" s="29"/>
       <c r="C23" s="30"/>
       <c r="D23" s="29"/>
@@ -12519,7 +12571,7 @@
       <c r="O23" s="29"/>
       <c r="P23" s="29"/>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="29"/>
       <c r="C24" s="30" t="s">
         <v>88</v>
@@ -12540,7 +12592,7 @@
       <c r="O24" s="29"/>
       <c r="P24" s="29"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25" s="29"/>
       <c r="C25" s="30" t="s">
         <v>89</v>
@@ -12561,7 +12613,7 @@
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26" s="29"/>
       <c r="C26" s="30" t="s">
         <v>91</v>
@@ -12582,13 +12634,13 @@
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27" s="29"/>
       <c r="C27" s="30" t="s">
         <v>79</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>593</v>
+        <v>724</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
@@ -12603,7 +12655,7 @@
       <c r="O27" s="29"/>
       <c r="P27" s="29"/>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="29"/>
       <c r="C28" s="30" t="s">
         <v>92</v>
@@ -12624,7 +12676,7 @@
       <c r="O28" s="29"/>
       <c r="P28" s="29"/>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29" s="27"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
@@ -12641,7 +12693,7 @@
       <c r="O29" s="29"/>
       <c r="P29" s="29"/>
     </row>
-    <row r="30" spans="2:16" s="34" customFormat="1">
+    <row r="30" spans="2:16" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="34" t="s">
         <v>135</v>
       </c>
@@ -12659,7 +12711,7 @@
       <c r="O30" s="35"/>
       <c r="P30" s="35"/>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>151</v>
       </c>
@@ -12670,7 +12722,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C32" s="33" t="s">
         <v>84</v>
       </c>
@@ -12678,7 +12730,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C33" s="33" t="s">
         <v>85</v>
       </c>
@@ -12686,7 +12738,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C34" s="33" t="s">
         <v>86</v>
       </c>
@@ -12694,7 +12746,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C35" s="33" t="s">
         <v>87</v>
       </c>
@@ -12702,10 +12754,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C36" s="33"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C37" s="33" t="s">
         <v>88</v>
       </c>
@@ -12713,7 +12765,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C38" s="33" t="s">
         <v>89</v>
       </c>
@@ -12721,7 +12773,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C39" s="33" t="s">
         <v>91</v>
       </c>
@@ -12729,40 +12781,40 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C40" s="33" t="s">
         <v>79</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C41" s="33" t="s">
         <v>92</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" s="51" customFormat="1">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C42" s="53"/>
       <c r="D42" s="51" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="J42" s="51" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" s="34" customFormat="1">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="34" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>153</v>
       </c>
@@ -12773,7 +12825,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C45" s="33" t="s">
         <v>84</v>
       </c>
@@ -12781,7 +12833,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C46" s="33" t="s">
         <v>85</v>
       </c>
@@ -12789,7 +12841,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C47" s="33" t="s">
         <v>86</v>
       </c>
@@ -12797,18 +12849,18 @@
         <v>201</v>
       </c>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C48" s="33" t="s">
         <v>87</v>
       </c>
       <c r="D48" s="32" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C49" s="33"/>
     </row>
-    <row r="50" spans="2:4">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C50" s="33" t="s">
         <v>88</v>
       </c>
@@ -12816,7 +12868,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C51" s="33" t="s">
         <v>89</v>
       </c>
@@ -12824,7 +12876,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="2:4">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C52" s="33" t="s">
         <v>91</v>
       </c>
@@ -12832,30 +12884,30 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="2:4">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C53" s="33" t="s">
         <v>79</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C54" s="33" t="s">
         <v>92</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" s="34" customFormat="1">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="34" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="2:4">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="C56" s="33" t="s">
         <v>83</v>
@@ -12864,7 +12916,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="2:4">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C57" s="33" t="s">
         <v>84</v>
       </c>
@@ -12872,7 +12924,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="2:4">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C58" s="33" t="s">
         <v>85</v>
       </c>
@@ -12880,7 +12932,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C59" s="33" t="s">
         <v>86</v>
       </c>
@@ -12888,7 +12940,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="60" spans="2:4">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C60" s="33" t="s">
         <v>87</v>
       </c>
@@ -12896,10 +12948,10 @@
         <v>206</v>
       </c>
     </row>
-    <row r="61" spans="2:4">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C61" s="33"/>
     </row>
-    <row r="62" spans="2:4">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C62" s="33" t="s">
         <v>88</v>
       </c>
@@ -12907,7 +12959,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="63" spans="2:4">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C63" s="33" t="s">
         <v>89</v>
       </c>
@@ -12915,36 +12967,36 @@
         <v>204</v>
       </c>
     </row>
-    <row r="64" spans="2:4">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C64" s="33" t="s">
         <v>91</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="65" spans="2:17">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="33" t="s">
         <v>79</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="66" spans="2:17">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="33" t="s">
         <v>92</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" s="34" customFormat="1">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="34" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="2:17">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>158</v>
       </c>
@@ -12955,7 +13007,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="2:17">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="33" t="s">
         <v>84</v>
       </c>
@@ -12963,7 +13015,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="70" spans="2:17">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="33" t="s">
         <v>85</v>
       </c>
@@ -12971,7 +13023,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="71" spans="2:17">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="33" t="s">
         <v>86</v>
       </c>
@@ -12979,7 +13031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="2:17">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="33" t="s">
         <v>87</v>
       </c>
@@ -12987,10 +13039,10 @@
         <v>209</v>
       </c>
     </row>
-    <row r="73" spans="2:17">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="33"/>
     </row>
-    <row r="74" spans="2:17">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="33" t="s">
         <v>88</v>
       </c>
@@ -12998,7 +13050,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="75" spans="2:17">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="33" t="s">
         <v>89</v>
       </c>
@@ -13006,7 +13058,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="76" spans="2:17">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="33" t="s">
         <v>91</v>
       </c>
@@ -13014,12 +13066,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="77" spans="2:17">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="33" t="s">
         <v>79</v>
       </c>
       <c r="D77" s="54" t="s">
-        <v>606</v>
+        <v>721</v>
       </c>
       <c r="E77" s="54"/>
       <c r="F77" s="54"/>
@@ -13035,26 +13087,26 @@
       <c r="P77" s="54"/>
       <c r="Q77" s="54"/>
     </row>
-    <row r="78" spans="2:17">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C78" s="33" t="s">
         <v>92</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="79" spans="2:17" s="51" customFormat="1">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C79" s="53"/>
       <c r="D79" s="51" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="80" spans="2:17" s="34" customFormat="1">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="34" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="2:16">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B81" s="2" t="s">
         <v>162</v>
       </c>
@@ -13065,7 +13117,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="82" spans="2:16">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C82" s="33" t="s">
         <v>84</v>
       </c>
@@ -13073,7 +13125,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="2:16">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C83" s="33" t="s">
         <v>85</v>
       </c>
@@ -13081,7 +13133,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="2:16">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C84" s="33" t="s">
         <v>86</v>
       </c>
@@ -13089,7 +13141,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="2:16">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C85" s="33" t="s">
         <v>87</v>
       </c>
@@ -13097,10 +13149,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="86" spans="2:16">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C86" s="33"/>
     </row>
-    <row r="87" spans="2:16">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C87" s="33" t="s">
         <v>88</v>
       </c>
@@ -13108,7 +13160,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="88" spans="2:16">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C88" s="33" t="s">
         <v>89</v>
       </c>
@@ -13116,7 +13168,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="89" spans="2:16">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C89" s="33" t="s">
         <v>91</v>
       </c>
@@ -13124,12 +13176,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="90" spans="2:16">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C90" s="33" t="s">
         <v>79</v>
       </c>
       <c r="D90" s="54" t="s">
-        <v>689</v>
+        <v>720</v>
       </c>
       <c r="E90" s="54"/>
       <c r="F90" s="54"/>
@@ -13144,12 +13196,12 @@
       <c r="O90" s="54"/>
       <c r="P90" s="54"/>
     </row>
-    <row r="91" spans="2:16">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C91" s="33" t="s">
         <v>92</v>
       </c>
       <c r="D91" s="54" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="E91" s="54"/>
       <c r="F91" s="54"/>
@@ -13164,12 +13216,12 @@
       <c r="O91" s="54"/>
       <c r="P91" s="54"/>
     </row>
-    <row r="93" spans="2:16" s="34" customFormat="1">
+    <row r="93" spans="2:16" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="34" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="94" spans="2:16">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
         <v>165</v>
       </c>
@@ -13180,7 +13232,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="95" spans="2:16">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C95" s="33" t="s">
         <v>84</v>
       </c>
@@ -13188,7 +13240,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="96" spans="2:16">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C96" s="33" t="s">
         <v>85</v>
       </c>
@@ -13196,7 +13248,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="97" spans="2:4">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C97" s="33" t="s">
         <v>86</v>
       </c>
@@ -13204,7 +13256,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="98" spans="2:4">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C98" s="33" t="s">
         <v>87</v>
       </c>
@@ -13212,10 +13264,10 @@
         <v>206</v>
       </c>
     </row>
-    <row r="99" spans="2:4">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C99" s="33"/>
     </row>
-    <row r="100" spans="2:4">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C100" s="33" t="s">
         <v>88</v>
       </c>
@@ -13223,7 +13275,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="101" spans="2:4">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C101" s="33" t="s">
         <v>89</v>
       </c>
@@ -13231,7 +13283,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="102" spans="2:4">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C102" s="33" t="s">
         <v>91</v>
       </c>
@@ -13239,28 +13291,28 @@
         <v>207</v>
       </c>
     </row>
-    <row r="103" spans="2:4">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C103" s="33" t="s">
         <v>79</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C104" s="33" t="s">
         <v>92</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" s="34" customFormat="1">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="34" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="2:4">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B107" s="2" t="s">
         <v>173</v>
       </c>
@@ -13271,7 +13323,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="108" spans="2:4">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C108" s="33" t="s">
         <v>84</v>
       </c>
@@ -13279,7 +13331,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="109" spans="2:4">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C109" s="33" t="s">
         <v>85</v>
       </c>
@@ -13287,7 +13339,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="110" spans="2:4">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C110" s="33" t="s">
         <v>86</v>
       </c>
@@ -13295,18 +13347,18 @@
         <v>176</v>
       </c>
     </row>
-    <row r="111" spans="2:4">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C111" s="33" t="s">
         <v>87</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C112" s="33"/>
     </row>
-    <row r="113" spans="2:15">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C113" s="33" t="s">
         <v>88</v>
       </c>
@@ -13314,7 +13366,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="114" spans="2:15">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C114" s="33" t="s">
         <v>89</v>
       </c>
@@ -13322,7 +13374,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="115" spans="2:15">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C115" s="33" t="s">
         <v>91</v>
       </c>
@@ -13330,12 +13382,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="2:15">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C116" s="33" t="s">
         <v>79</v>
       </c>
       <c r="D116" s="54" t="s">
-        <v>690</v>
+        <v>728</v>
       </c>
       <c r="E116" s="54"/>
       <c r="F116" s="54"/>
@@ -13349,20 +13401,20 @@
       <c r="N116" s="54"/>
       <c r="O116" s="54"/>
     </row>
-    <row r="117" spans="2:15">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C117" s="33" t="s">
         <v>92</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="118" spans="2:15" s="34" customFormat="1">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="118" spans="2:15" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118" s="34" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="2:15">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B119" s="2" t="s">
         <v>179</v>
       </c>
@@ -13373,7 +13425,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="120" spans="2:15">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C120" s="33" t="s">
         <v>84</v>
       </c>
@@ -13381,7 +13433,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="121" spans="2:15">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C121" s="33" t="s">
         <v>85</v>
       </c>
@@ -13389,7 +13441,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="122" spans="2:15">
+    <row r="122" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C122" s="33" t="s">
         <v>86</v>
       </c>
@@ -13397,7 +13449,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="123" spans="2:15">
+    <row r="123" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C123" s="33" t="s">
         <v>87</v>
       </c>
@@ -13405,10 +13457,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="124" spans="2:15">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C124" s="33"/>
     </row>
-    <row r="125" spans="2:15">
+    <row r="125" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C125" s="33" t="s">
         <v>88</v>
       </c>
@@ -13416,7 +13468,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="126" spans="2:15">
+    <row r="126" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C126" s="33" t="s">
         <v>89</v>
       </c>
@@ -13424,7 +13476,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="127" spans="2:15">
+    <row r="127" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C127" s="33" t="s">
         <v>91</v>
       </c>
@@ -13432,32 +13484,32 @@
         <v>207</v>
       </c>
     </row>
-    <row r="128" spans="2:15">
+    <row r="128" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C128" s="33" t="s">
         <v>79</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>610</v>
+        <v>725</v>
       </c>
       <c r="N128" s="54" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
       <c r="O128" s="54"/>
     </row>
-    <row r="129" spans="2:4">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C129" s="33" t="s">
         <v>92</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4" s="34" customFormat="1">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B130" s="34" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="131" spans="2:4">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B131" s="2" t="s">
         <v>189</v>
       </c>
@@ -13468,7 +13520,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="132" spans="2:4">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C132" s="33" t="s">
         <v>84</v>
       </c>
@@ -13476,15 +13528,15 @@
         <v>182</v>
       </c>
     </row>
-    <row r="133" spans="2:4">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C133" s="33" t="s">
         <v>85</v>
       </c>
       <c r="D133" s="31" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="134" spans="2:4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C134" s="33" t="s">
         <v>86</v>
       </c>
@@ -13492,7 +13544,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="135" spans="2:4">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C135" s="33" t="s">
         <v>87</v>
       </c>
@@ -13500,10 +13552,10 @@
         <v>217</v>
       </c>
     </row>
-    <row r="136" spans="2:4">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C136" s="33"/>
     </row>
-    <row r="137" spans="2:4">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C137" s="33" t="s">
         <v>88</v>
       </c>
@@ -13511,7 +13563,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="138" spans="2:4">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C138" s="33" t="s">
         <v>89</v>
       </c>
@@ -13519,7 +13571,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="139" spans="2:4">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C139" s="33" t="s">
         <v>91</v>
       </c>
@@ -13527,33 +13579,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="2:4">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C140" s="33" t="s">
         <v>79</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C141" s="33" t="s">
         <v>92</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D142" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="143" spans="2:4" s="34" customFormat="1">
+    <row r="143" spans="2:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B143" s="34" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="144" spans="2:4">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B144" s="2" t="s">
         <v>192</v>
       </c>
@@ -13564,7 +13616,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="145" spans="2:14">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C145" s="33" t="s">
         <v>84</v>
       </c>
@@ -13572,7 +13624,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="146" spans="2:14">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C146" s="33" t="s">
         <v>85</v>
       </c>
@@ -13580,7 +13632,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="147" spans="2:14">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C147" s="33" t="s">
         <v>86</v>
       </c>
@@ -13588,7 +13640,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="148" spans="2:14">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C148" s="33" t="s">
         <v>87</v>
       </c>
@@ -13596,10 +13648,10 @@
         <v>213</v>
       </c>
     </row>
-    <row r="149" spans="2:14">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C149" s="33"/>
     </row>
-    <row r="150" spans="2:14">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C150" s="33" t="s">
         <v>88</v>
       </c>
@@ -13607,7 +13659,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="151" spans="2:14">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C151" s="33" t="s">
         <v>89</v>
       </c>
@@ -13615,7 +13667,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="152" spans="2:14">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C152" s="33" t="s">
         <v>91</v>
       </c>
@@ -13623,12 +13675,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="153" spans="2:14">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C153" s="33" t="s">
         <v>79</v>
       </c>
       <c r="D153" s="52" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
       <c r="E153" s="52"/>
       <c r="F153" s="52"/>
@@ -13641,31 +13693,31 @@
       <c r="M153" s="52"/>
       <c r="N153" s="52"/>
     </row>
-    <row r="154" spans="2:14">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C154" s="33" t="s">
         <v>92</v>
       </c>
       <c r="D154" s="51" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="156" spans="2:14" s="34" customFormat="1">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B156" s="34" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B157" s="51" t="s">
         <v>509</v>
-      </c>
-    </row>
-    <row r="157" spans="2:14" s="51" customFormat="1">
-      <c r="B157" s="51" t="s">
-        <v>510</v>
       </c>
       <c r="C157" s="53" t="s">
         <v>83</v>
       </c>
       <c r="D157" s="51" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="158" spans="2:14" s="51" customFormat="1">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C158" s="53" t="s">
         <v>84</v>
       </c>
@@ -13673,15 +13725,15 @@
         <v>182</v>
       </c>
     </row>
-    <row r="159" spans="2:14" s="51" customFormat="1">
+    <row r="159" spans="2:14" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C159" s="53" t="s">
         <v>85</v>
       </c>
       <c r="D159" s="51" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="160" spans="2:14" s="51" customFormat="1">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C160" s="53" t="s">
         <v>86</v>
       </c>
@@ -13689,7 +13741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="2:4" s="51" customFormat="1">
+    <row r="161" spans="2:4" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C161" s="53" t="s">
         <v>87</v>
       </c>
@@ -13697,10 +13749,10 @@
         <v>209</v>
       </c>
     </row>
-    <row r="162" spans="2:4" s="51" customFormat="1">
+    <row r="162" spans="2:4" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C162" s="53"/>
     </row>
-    <row r="163" spans="2:4" s="51" customFormat="1">
+    <row r="163" spans="2:4" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C163" s="53" t="s">
         <v>88</v>
       </c>
@@ -13708,7 +13760,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="164" spans="2:4" s="51" customFormat="1">
+    <row r="164" spans="2:4" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C164" s="53" t="s">
         <v>89</v>
       </c>
@@ -13716,7 +13768,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="165" spans="2:4" s="51" customFormat="1">
+    <row r="165" spans="2:4" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C165" s="53" t="s">
         <v>91</v>
       </c>
@@ -13724,24 +13776,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="2:4" s="51" customFormat="1">
+    <row r="166" spans="2:4" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C166" s="53" t="s">
         <v>79</v>
       </c>
       <c r="D166" s="51" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="167" spans="2:4" s="51" customFormat="1">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C167" s="53" t="s">
         <v>92</v>
       </c>
       <c r="D167" s="51" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4" s="51" customFormat="1"/>
-    <row r="169" spans="2:4" s="34" customFormat="1">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" s="51" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" spans="2:4" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B169" s="34" t="s">
         <v>226</v>
       </c>
@@ -13754,25 +13806,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q681"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S681"/>
   <sheetViews>
-    <sheetView topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A291" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="E452" sqref="E452"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="2"/>
-    <col min="2" max="2" width="14.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="2"/>
+    <col min="2" max="2" width="14.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.75" style="2"/>
+    <col min="7" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1">
+    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B1" s="8" t="s">
         <v>33</v>
       </c>
@@ -13791,7 +13843,7 @@
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:16" s="7" customFormat="1">
+    <row r="2" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
         <v>34</v>
@@ -13810,7 +13862,7 @@
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:16" s="7" customFormat="1">
+    <row r="3" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
@@ -13829,7 +13881,7 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" s="7" customFormat="1">
+    <row r="4" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
@@ -13848,7 +13900,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:16" s="7" customFormat="1">
+    <row r="5" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
@@ -13867,7 +13919,7 @@
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:16" s="24" customFormat="1">
+    <row r="6" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="26" t="s">
@@ -13886,7 +13938,7 @@
       <c r="O6" s="26"/>
       <c r="P6" s="26"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>21</v>
       </c>
@@ -13906,7 +13958,7 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" s="34" customFormat="1">
+    <row r="8" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="34" t="s">
         <v>135</v>
       </c>
@@ -13924,7 +13976,7 @@
       <c r="O8" s="35"/>
       <c r="P8" s="35"/>
     </row>
-    <row r="9" spans="1:16" s="31" customFormat="1">
+    <row r="9" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="31" t="s">
         <v>151</v>
       </c>
@@ -13932,11 +13984,11 @@
         <v>83</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="F9" s="52"/>
     </row>
-    <row r="10" spans="1:16" s="31" customFormat="1">
+    <row r="10" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C10" s="33" t="s">
         <v>84</v>
       </c>
@@ -13944,7 +13996,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="31" customFormat="1">
+    <row r="11" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C11" s="33" t="s">
         <v>85</v>
       </c>
@@ -13952,7 +14004,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="31" customFormat="1">
+    <row r="12" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C12" s="33" t="s">
         <v>86</v>
       </c>
@@ -13960,7 +14012,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="31" customFormat="1">
+    <row r="13" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C13" s="33" t="s">
         <v>87</v>
       </c>
@@ -13968,13 +14020,13 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="31" customFormat="1">
+    <row r="14" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C14" s="33"/>
       <c r="D14" s="31" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="31" customFormat="1">
+    <row r="15" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C15" s="33" t="s">
         <v>88</v>
       </c>
@@ -13982,7 +14034,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="31" customFormat="1">
+    <row r="16" spans="1:16" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C16" s="33" t="s">
         <v>89</v>
       </c>
@@ -13990,7 +14042,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="3:13" s="31" customFormat="1">
+    <row r="17" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C17" s="33" t="s">
         <v>91</v>
       </c>
@@ -13998,15 +14050,15 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="3:13" s="31" customFormat="1">
+    <row r="18" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C18" s="33" t="s">
         <v>79</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" s="31" customFormat="1">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C19" s="33" t="s">
         <v>92</v>
       </c>
@@ -14014,26 +14066,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="3:13" s="31" customFormat="1">
+    <row r="20" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C20" s="33" t="s">
         <v>233</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" s="31" customFormat="1">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C21" s="33" t="s">
         <v>235</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" s="31" customFormat="1">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C22" s="33"/>
     </row>
-    <row r="23" spans="3:13" s="31" customFormat="1">
+    <row r="23" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C23" s="33" t="s">
         <v>471</v>
       </c>
@@ -14041,9 +14093,9 @@
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
     </row>
-    <row r="24" spans="3:13" s="31" customFormat="1">
+    <row r="24" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D24" s="31" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>434</v>
@@ -14059,20 +14111,22 @@
       <c r="L24" s="32"/>
       <c r="M24" s="32"/>
     </row>
-    <row r="25" spans="3:13" s="31" customFormat="1">
+    <row r="25" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E25" s="32"/>
       <c r="F25" s="32" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="H25" s="32"/>
-      <c r="K25" s="32"/>
+      <c r="K25" s="54" t="s">
+        <v>701</v>
+      </c>
       <c r="L25" s="32"/>
       <c r="M25" s="32"/>
     </row>
-    <row r="26" spans="3:13" s="31" customFormat="1">
+    <row r="26" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E26" s="32"/>
       <c r="F26" s="32" t="s">
         <v>14</v>
@@ -14085,7 +14139,7 @@
       <c r="L26" s="32"/>
       <c r="M26" s="23"/>
     </row>
-    <row r="27" spans="3:13" s="31" customFormat="1">
+    <row r="27" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E27" s="32"/>
       <c r="F27" s="32" t="s">
         <v>16</v>
@@ -14098,7 +14152,7 @@
       <c r="L27" s="32"/>
       <c r="M27" s="32"/>
     </row>
-    <row r="28" spans="3:13" s="31" customFormat="1">
+    <row r="28" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E28" s="32"/>
       <c r="F28" s="32" t="s">
         <v>17</v>
@@ -14110,20 +14164,22 @@
       <c r="L28" s="32"/>
       <c r="M28" s="32"/>
     </row>
-    <row r="29" spans="3:13" s="31" customFormat="1">
+    <row r="29" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E29" s="32"/>
       <c r="F29" s="32" t="s">
         <v>62</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="H29" s="4"/>
-      <c r="K29" s="32"/>
+      <c r="K29" s="54" t="s">
+        <v>702</v>
+      </c>
       <c r="L29" s="32"/>
       <c r="M29" s="32"/>
     </row>
-    <row r="30" spans="3:13" s="31" customFormat="1">
+    <row r="30" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E30" s="32"/>
       <c r="F30" s="32" t="s">
         <v>64</v>
@@ -14132,17 +14188,17 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="3:13" s="31" customFormat="1">
+    <row r="31" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E31" s="32"/>
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
     </row>
-    <row r="32" spans="3:13" s="31" customFormat="1">
+    <row r="32" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D32" s="51" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F32" s="32" t="s">
         <v>9</v>
@@ -14152,17 +14208,17 @@
       </c>
       <c r="H32" s="32"/>
     </row>
-    <row r="33" spans="2:8" s="31" customFormat="1">
+    <row r="33" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E33" s="32"/>
       <c r="F33" s="32" t="s">
         <v>19</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="H33" s="32"/>
     </row>
-    <row r="34" spans="2:8" s="31" customFormat="1">
+    <row r="34" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E34" s="32"/>
       <c r="F34" s="32" t="s">
         <v>14</v>
@@ -14172,7 +14228,7 @@
       </c>
       <c r="H34" s="32"/>
     </row>
-    <row r="35" spans="2:8" s="31" customFormat="1">
+    <row r="35" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E35" s="32"/>
       <c r="F35" s="32" t="s">
         <v>16</v>
@@ -14182,7 +14238,7 @@
       </c>
       <c r="H35" s="32"/>
     </row>
-    <row r="36" spans="2:8" s="31" customFormat="1">
+    <row r="36" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E36" s="32"/>
       <c r="F36" s="32" t="s">
         <v>17</v>
@@ -14191,17 +14247,20 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="2:8" s="31" customFormat="1">
+    <row r="37" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E37" s="32"/>
       <c r="F37" s="32" t="s">
         <v>62</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="2:8" s="31" customFormat="1">
+      <c r="K37" s="54" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E38" s="32"/>
       <c r="F38" s="32" t="s">
         <v>64</v>
@@ -14210,14 +14269,14 @@
         <v>286</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="31" customFormat="1">
+    <row r="39" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E39" s="32"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
     </row>
-    <row r="40" spans="2:8" s="31" customFormat="1">
+    <row r="40" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D40" s="51" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E40" s="31" t="s">
         <v>435</v>
@@ -14229,7 +14288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:8" s="31" customFormat="1">
+    <row r="41" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F41" s="32" t="s">
         <v>19</v>
       </c>
@@ -14237,7 +14296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="2:8" s="31" customFormat="1">
+    <row r="42" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F42" s="32" t="s">
         <v>14</v>
       </c>
@@ -14245,7 +14304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="31" customFormat="1">
+    <row r="43" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F43" s="32" t="s">
         <v>16</v>
       </c>
@@ -14254,7 +14313,7 @@
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="2:8" s="31" customFormat="1">
+    <row r="44" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E44" s="32"/>
       <c r="F44" s="32" t="s">
         <v>17</v>
@@ -14264,15 +14323,15 @@
       </c>
       <c r="H44" s="32"/>
     </row>
-    <row r="45" spans="2:8" s="31" customFormat="1">
+    <row r="45" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C45" s="33"/>
     </row>
-    <row r="46" spans="2:8" s="34" customFormat="1">
+    <row r="46" spans="2:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="34" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="47" spans="2:8" s="31" customFormat="1">
+    <row r="47" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="31" t="s">
         <v>153</v>
       </c>
@@ -14280,10 +14339,10 @@
         <v>83</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" s="31" customFormat="1">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C48" s="33" t="s">
         <v>84</v>
       </c>
@@ -14291,7 +14350,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="3:6" s="31" customFormat="1">
+    <row r="49" spans="3:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C49" s="33" t="s">
         <v>85</v>
       </c>
@@ -14299,7 +14358,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="3:6" s="31" customFormat="1">
+    <row r="50" spans="3:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C50" s="33" t="s">
         <v>86</v>
       </c>
@@ -14307,7 +14366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="3:6" s="31" customFormat="1">
+    <row r="51" spans="3:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C51" s="33" t="s">
         <v>87</v>
       </c>
@@ -14315,65 +14374,77 @@
         <v>484</v>
       </c>
     </row>
-    <row r="52" spans="3:6" s="31" customFormat="1">
+    <row r="52" spans="3:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C52" s="33"/>
       <c r="D52" s="32" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" s="31" customFormat="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C53" s="33"/>
       <c r="D53" s="32" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" s="31" customFormat="1">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C54" s="33"/>
       <c r="D54" s="32"/>
       <c r="E54" s="31" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" s="31" customFormat="1">
+        <v>492</v>
+      </c>
+      <c r="K54" s="54" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C55" s="33"/>
       <c r="D55" s="32"/>
-    </row>
-    <row r="56" spans="3:6" s="31" customFormat="1">
+      <c r="K55" s="54" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C56" s="33"/>
       <c r="D56" s="32" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="57" spans="3:6" s="31" customFormat="1">
+      <c r="K56" s="54" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C57" s="33"/>
       <c r="E57" s="32" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6" s="31" customFormat="1">
+        <v>493</v>
+      </c>
+      <c r="K57" s="54" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C58" s="33"/>
       <c r="E58" s="32"/>
       <c r="F58" s="31" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" s="31" customFormat="1">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C59" s="33"/>
       <c r="E59" s="32"/>
       <c r="F59" s="31" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="60" spans="3:6" s="31" customFormat="1">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C60" s="33"/>
       <c r="E60" s="32" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="61" spans="3:6" s="31" customFormat="1">
+    <row r="61" spans="3:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C61" s="33"/>
     </row>
-    <row r="62" spans="3:6" s="31" customFormat="1">
+    <row r="62" spans="3:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C62" s="33" t="s">
         <v>88</v>
       </c>
@@ -14381,7 +14452,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="3:6" s="31" customFormat="1">
+    <row r="63" spans="3:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C63" s="33" t="s">
         <v>89</v>
       </c>
@@ -14389,7 +14460,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="64" spans="3:6" s="31" customFormat="1">
+    <row r="64" spans="3:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C64" s="33" t="s">
         <v>91</v>
       </c>
@@ -14397,7 +14468,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="3:10" s="31" customFormat="1">
+    <row r="65" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C65" s="33" t="s">
         <v>79</v>
       </c>
@@ -14405,7 +14476,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="3:10" s="31" customFormat="1">
+    <row r="66" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C66" s="33" t="s">
         <v>92</v>
       </c>
@@ -14413,7 +14484,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="3:10" s="31" customFormat="1">
+    <row r="67" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C67" s="33" t="s">
         <v>478</v>
       </c>
@@ -14424,15 +14495,15 @@
         <v>482</v>
       </c>
     </row>
-    <row r="68" spans="3:10" s="31" customFormat="1">
+    <row r="68" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C68" s="33"/>
     </row>
-    <row r="69" spans="3:10" s="31" customFormat="1">
+    <row r="69" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C69" s="25" t="s">
         <v>471</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E69" s="32" t="s">
         <v>255</v>
@@ -14444,14 +14515,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="3:10" s="31" customFormat="1">
+    <row r="70" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E70" s="32"/>
       <c r="F70" s="32" t="s">
         <v>19</v>
       </c>
       <c r="G70" s="32"/>
     </row>
-    <row r="71" spans="3:10" s="31" customFormat="1">
+    <row r="71" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E71" s="32"/>
       <c r="F71" s="32" t="s">
         <v>14</v>
@@ -14460,7 +14531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="3:10" s="31" customFormat="1">
+    <row r="72" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E72" s="32"/>
       <c r="F72" s="32" t="s">
         <v>16</v>
@@ -14469,7 +14540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="3:10" s="31" customFormat="1">
+    <row r="73" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E73" s="32"/>
       <c r="F73" s="32" t="s">
         <v>17</v>
@@ -14481,7 +14552,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="74" spans="3:10" s="31" customFormat="1">
+    <row r="74" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E74" s="32"/>
       <c r="F74" s="32" t="s">
         <v>62</v>
@@ -14490,7 +14561,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="75" spans="3:10" s="31" customFormat="1">
+    <row r="75" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E75" s="32"/>
       <c r="F75" s="32" t="s">
         <v>64</v>
@@ -14499,28 +14570,28 @@
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="3:10" s="31" customFormat="1"/>
-    <row r="77" spans="3:10" s="31" customFormat="1">
+    <row r="76" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D77" s="31" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E77" s="31" t="s">
         <v>476</v>
       </c>
       <c r="F77" s="52" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G77" s="52"/>
       <c r="H77" s="51"/>
     </row>
-    <row r="78" spans="3:10" s="31" customFormat="1">
+    <row r="78" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F78" s="51" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G78" s="51"/>
       <c r="H78" s="51"/>
     </row>
-    <row r="79" spans="3:10" s="31" customFormat="1">
+    <row r="79" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F79" s="51"/>
       <c r="G79" s="52" t="s">
         <v>9</v>
@@ -14529,7 +14600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="3:10" s="31" customFormat="1">
+    <row r="80" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F80" s="51"/>
       <c r="G80" s="52" t="s">
         <v>19</v>
@@ -14538,7 +14609,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="81" spans="4:8" s="31" customFormat="1">
+    <row r="81" spans="4:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E81" s="32"/>
       <c r="F81" s="51"/>
       <c r="G81" s="52" t="s">
@@ -14548,7 +14619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="4:8" s="31" customFormat="1">
+    <row r="82" spans="4:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E82" s="32"/>
       <c r="F82" s="51"/>
       <c r="G82" s="52" t="s">
@@ -14558,7 +14629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="4:8" s="31" customFormat="1">
+    <row r="83" spans="4:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E83" s="32"/>
       <c r="F83" s="51"/>
       <c r="G83" s="52" t="s">
@@ -14568,7 +14639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="4:8" s="31" customFormat="1">
+    <row r="84" spans="4:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E84" s="32"/>
       <c r="F84" s="51"/>
       <c r="G84" s="52" t="s">
@@ -14578,7 +14649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="4:8" s="31" customFormat="1">
+    <row r="85" spans="4:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E85" s="32"/>
       <c r="F85" s="51"/>
       <c r="G85" s="52" t="s">
@@ -14588,29 +14659,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="86" spans="4:8" s="51" customFormat="1">
+    <row r="86" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E86" s="52"/>
       <c r="G86" s="52"/>
       <c r="H86" s="52"/>
     </row>
-    <row r="87" spans="4:8" s="51" customFormat="1">
+    <row r="87" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D87" s="51" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E87" s="31" t="s">
         <v>477</v>
       </c>
       <c r="F87" s="32" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G87" s="52"/>
     </row>
-    <row r="88" spans="4:8" s="31" customFormat="1">
+    <row r="88" spans="4:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F88" s="31" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="89" spans="4:8" s="31" customFormat="1">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="89" spans="4:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G89" s="32" t="s">
         <v>9</v>
       </c>
@@ -14618,7 +14689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="4:8" s="31" customFormat="1">
+    <row r="90" spans="4:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G90" s="32" t="s">
         <v>19</v>
       </c>
@@ -14626,7 +14697,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="91" spans="4:8" s="31" customFormat="1">
+    <row r="91" spans="4:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G91" s="32" t="s">
         <v>14</v>
       </c>
@@ -14634,7 +14705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="4:8" s="31" customFormat="1">
+    <row r="92" spans="4:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E92" s="32"/>
       <c r="G92" s="32" t="s">
         <v>16</v>
@@ -14643,7 +14714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="4:8" s="31" customFormat="1">
+    <row r="93" spans="4:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E93" s="32"/>
       <c r="G93" s="32" t="s">
         <v>17</v>
@@ -14652,7 +14723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="4:8" s="31" customFormat="1">
+    <row r="94" spans="4:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E94" s="32"/>
       <c r="G94" s="32" t="s">
         <v>62</v>
@@ -14661,7 +14732,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="95" spans="4:8" s="31" customFormat="1">
+    <row r="95" spans="4:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E95" s="32"/>
       <c r="G95" s="32" t="s">
         <v>64</v>
@@ -14670,32 +14741,32 @@
         <v>65</v>
       </c>
     </row>
-    <row r="96" spans="4:8" s="31" customFormat="1">
+    <row r="96" spans="4:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E96" s="32"/>
       <c r="F96" s="32"/>
       <c r="H96" s="32"/>
     </row>
-    <row r="97" spans="2:8" s="31" customFormat="1">
+    <row r="97" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D97" s="31" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E97" s="51" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="F97" s="52" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G97" s="52"/>
       <c r="H97" s="51"/>
     </row>
-    <row r="98" spans="2:8" s="31" customFormat="1">
+    <row r="98" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F98" s="51" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G98" s="51"/>
       <c r="H98" s="51"/>
     </row>
-    <row r="99" spans="2:8" s="31" customFormat="1">
+    <row r="99" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F99" s="51"/>
       <c r="G99" s="52" t="s">
         <v>9</v>
@@ -14704,7 +14775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:8" s="31" customFormat="1">
+    <row r="100" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F100" s="51"/>
       <c r="G100" s="52" t="s">
         <v>19</v>
@@ -14713,7 +14784,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="101" spans="2:8" s="31" customFormat="1">
+    <row r="101" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E101" s="32"/>
       <c r="F101" s="51"/>
       <c r="G101" s="52" t="s">
@@ -14723,7 +14794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="2:8" s="31" customFormat="1">
+    <row r="102" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E102" s="32"/>
       <c r="F102" s="51"/>
       <c r="G102" s="52" t="s">
@@ -14733,7 +14804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:8" s="31" customFormat="1">
+    <row r="103" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E103" s="32"/>
       <c r="F103" s="51"/>
       <c r="G103" s="52" t="s">
@@ -14743,7 +14814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="2:8" s="31" customFormat="1">
+    <row r="104" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E104" s="32"/>
       <c r="F104" s="51"/>
       <c r="G104" s="52" t="s">
@@ -14753,7 +14824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="2:8" s="31" customFormat="1">
+    <row r="105" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C105" s="33"/>
       <c r="F105" s="51"/>
       <c r="G105" s="52" t="s">
@@ -14763,25 +14834,25 @@
         <v>65</v>
       </c>
     </row>
-    <row r="106" spans="2:8" s="51" customFormat="1">
+    <row r="106" spans="2:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C106" s="53"/>
       <c r="F106" s="52"/>
       <c r="G106" s="52"/>
     </row>
-    <row r="107" spans="2:8" s="34" customFormat="1">
+    <row r="107" spans="2:8" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107" s="34" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="2:8" s="31" customFormat="1">
+    <row r="108" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C108" s="33" t="s">
         <v>83</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" s="31" customFormat="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C109" s="33" t="s">
         <v>84</v>
       </c>
@@ -14789,7 +14860,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="2:8" s="31" customFormat="1">
+    <row r="110" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C110" s="33" t="s">
         <v>85</v>
       </c>
@@ -14797,7 +14868,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="111" spans="2:8" s="31" customFormat="1">
+    <row r="111" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C111" s="33" t="s">
         <v>86</v>
       </c>
@@ -14805,7 +14876,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="112" spans="2:8" s="31" customFormat="1">
+    <row r="112" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C112" s="33" t="s">
         <v>87</v>
       </c>
@@ -14813,11 +14884,11 @@
         <v>198</v>
       </c>
     </row>
-    <row r="113" spans="3:14" s="31" customFormat="1">
+    <row r="113" spans="3:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C113" s="33"/>
       <c r="N113"/>
     </row>
-    <row r="114" spans="3:14" s="31" customFormat="1">
+    <row r="114" spans="3:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C114" s="33" t="s">
         <v>88</v>
       </c>
@@ -14825,7 +14896,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="115" spans="3:14" s="31" customFormat="1">
+    <row r="115" spans="3:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C115" s="33" t="s">
         <v>89</v>
       </c>
@@ -14833,7 +14904,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="116" spans="3:14" s="31" customFormat="1">
+    <row r="116" spans="3:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C116" s="33" t="s">
         <v>91</v>
       </c>
@@ -14841,7 +14912,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="117" spans="3:14" s="31" customFormat="1">
+    <row r="117" spans="3:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C117" s="33" t="s">
         <v>79</v>
       </c>
@@ -14849,7 +14920,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="118" spans="3:14" s="31" customFormat="1">
+    <row r="118" spans="3:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C118" s="33" t="s">
         <v>92</v>
       </c>
@@ -14857,21 +14928,21 @@
         <v>205</v>
       </c>
     </row>
-    <row r="119" spans="3:14" s="31" customFormat="1">
+    <row r="119" spans="3:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C119" s="33"/>
       <c r="D119" s="31" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="120" spans="3:14" s="51" customFormat="1">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="120" spans="3:14" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C120" s="53"/>
     </row>
-    <row r="121" spans="3:14" s="31" customFormat="1">
+    <row r="121" spans="3:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C121" s="25" t="s">
         <v>471</v>
       </c>
       <c r="D121" s="31" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E121" s="32" t="s">
         <v>435</v>
@@ -14883,7 +14954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="3:14" s="31" customFormat="1">
+    <row r="122" spans="3:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E122" s="32"/>
       <c r="F122" s="32" t="s">
         <v>19</v>
@@ -14892,7 +14963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="3:14" s="31" customFormat="1">
+    <row r="123" spans="3:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E123" s="32"/>
       <c r="F123" s="32" t="s">
         <v>14</v>
@@ -14901,7 +14972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="3:14" s="31" customFormat="1">
+    <row r="124" spans="3:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E124" s="32"/>
       <c r="F124" s="32" t="s">
         <v>16</v>
@@ -14910,7 +14981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="3:14" s="31" customFormat="1">
+    <row r="125" spans="3:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E125" s="32"/>
       <c r="F125" s="32" t="s">
         <v>17</v>
@@ -14919,7 +14990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="3:14" s="31" customFormat="1">
+    <row r="126" spans="3:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E126" s="32"/>
       <c r="F126" s="32" t="s">
         <v>62</v>
@@ -14928,7 +14999,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="127" spans="3:14" s="31" customFormat="1">
+    <row r="127" spans="3:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E127" s="32"/>
       <c r="F127" s="32" t="s">
         <v>64</v>
@@ -14937,10 +15008,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="128" spans="3:14" s="31" customFormat="1"/>
-    <row r="129" spans="2:7" s="31" customFormat="1">
+    <row r="128" spans="3:14" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D129" s="31" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E129" s="31" t="s">
         <v>473</v>
@@ -14952,7 +15023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="2:7" s="31" customFormat="1">
+    <row r="130" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F130" s="32" t="s">
         <v>19</v>
       </c>
@@ -14960,7 +15031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="2:7" s="31" customFormat="1">
+    <row r="131" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F131" s="32" t="s">
         <v>14</v>
       </c>
@@ -14968,7 +15039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="2:7" s="31" customFormat="1">
+    <row r="132" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F132" s="32" t="s">
         <v>16</v>
       </c>
@@ -14976,7 +15047,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="133" spans="2:7" s="31" customFormat="1">
+    <row r="133" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E133" s="32"/>
       <c r="F133" s="32" t="s">
         <v>17</v>
@@ -14985,7 +15056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="2:7" s="31" customFormat="1">
+    <row r="134" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E134" s="32"/>
       <c r="F134" s="32" t="s">
         <v>62</v>
@@ -14994,7 +15065,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="135" spans="2:7" s="31" customFormat="1">
+    <row r="135" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E135" s="32"/>
       <c r="F135" s="32" t="s">
         <v>64</v>
@@ -15003,15 +15074,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="136" spans="2:7" s="31" customFormat="1">
+    <row r="136" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C136" s="33"/>
     </row>
-    <row r="137" spans="2:7" s="34" customFormat="1">
+    <row r="137" spans="2:7" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B137" s="34" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="138" spans="2:7" s="31" customFormat="1">
+    <row r="138" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B138" s="31" t="s">
         <v>165</v>
       </c>
@@ -15019,10 +15090,10 @@
         <v>83</v>
       </c>
       <c r="D138" s="31" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="139" spans="2:7" s="31" customFormat="1">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C139" s="33" t="s">
         <v>84</v>
       </c>
@@ -15030,7 +15101,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="2:7" s="31" customFormat="1">
+    <row r="140" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C140" s="33" t="s">
         <v>85</v>
       </c>
@@ -15038,7 +15109,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="141" spans="2:7" s="31" customFormat="1">
+    <row r="141" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C141" s="33" t="s">
         <v>86</v>
       </c>
@@ -15046,39 +15117,39 @@
         <v>219</v>
       </c>
     </row>
-    <row r="142" spans="2:7" s="31" customFormat="1">
+    <row r="142" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C142" s="33" t="s">
         <v>87</v>
       </c>
       <c r="D142" s="31" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="143" spans="2:7" s="31" customFormat="1">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C143" s="33"/>
       <c r="D143" s="31" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="144" spans="2:7" s="51" customFormat="1">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C144" s="53"/>
     </row>
-    <row r="145" spans="3:7" s="51" customFormat="1">
+    <row r="145" spans="3:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C145" s="53"/>
       <c r="D145" s="51" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="146" spans="3:7" s="51" customFormat="1">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="146" spans="3:12" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C146" s="53"/>
       <c r="E146" s="51" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="147" spans="3:7" s="31" customFormat="1">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="147" spans="3:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C147" s="33"/>
     </row>
-    <row r="148" spans="3:7" s="31" customFormat="1">
+    <row r="148" spans="3:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C148" s="33" t="s">
         <v>88</v>
       </c>
@@ -15086,7 +15157,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="149" spans="3:7" s="31" customFormat="1">
+    <row r="149" spans="3:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C149" s="33" t="s">
         <v>89</v>
       </c>
@@ -15094,7 +15165,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="150" spans="3:7" s="31" customFormat="1">
+    <row r="150" spans="3:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C150" s="33" t="s">
         <v>91</v>
       </c>
@@ -15102,31 +15173,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="3:7" s="31" customFormat="1">
+    <row r="151" spans="3:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C151" s="33" t="s">
         <v>79</v>
       </c>
       <c r="D151" s="51" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="152" spans="3:7" s="31" customFormat="1">
+        <v>699</v>
+      </c>
+      <c r="L151" s="54" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="152" spans="3:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C152" s="33" t="s">
         <v>92</v>
       </c>
       <c r="D152" s="31" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="153" spans="3:7" s="31" customFormat="1">
+      <c r="L152" s="52" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="153" spans="3:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C153" s="33"/>
     </row>
-    <row r="154" spans="3:7" s="31" customFormat="1">
+    <row r="154" spans="3:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C154" s="25" t="s">
         <v>471</v>
       </c>
       <c r="D154" s="31" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E154" s="32" t="s">
         <v>435</v>
@@ -15138,7 +15215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="3:7" s="31" customFormat="1">
+    <row r="155" spans="3:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C155" s="33"/>
       <c r="E155" s="32"/>
       <c r="F155" s="32" t="s">
@@ -15148,7 +15225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="3:7" s="31" customFormat="1">
+    <row r="156" spans="3:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C156" s="33"/>
       <c r="E156" s="32"/>
       <c r="F156" s="32" t="s">
@@ -15158,7 +15235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="3:7" s="31" customFormat="1">
+    <row r="157" spans="3:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C157" s="33"/>
       <c r="E157" s="32"/>
       <c r="F157" s="32" t="s">
@@ -15168,17 +15245,17 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="158" spans="3:7" s="31" customFormat="1">
+    <row r="158" spans="3:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C158" s="33"/>
       <c r="E158" s="32"/>
       <c r="F158" s="32" t="s">
         <v>17</v>
       </c>
       <c r="G158" s="32" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="159" spans="3:7" s="31" customFormat="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="159" spans="3:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C159" s="33"/>
       <c r="E159" s="32"/>
       <c r="F159" s="32" t="s">
@@ -15188,7 +15265,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="160" spans="3:7" s="31" customFormat="1">
+    <row r="160" spans="3:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C160" s="33"/>
       <c r="E160" s="32"/>
       <c r="F160" s="32" t="s">
@@ -15198,13 +15275,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="161" spans="3:8" s="31" customFormat="1">
+    <row r="161" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C161" s="33"/>
     </row>
-    <row r="162" spans="3:8" s="31" customFormat="1">
+    <row r="162" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C162" s="33"/>
       <c r="D162" s="31" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E162" s="31" t="s">
         <v>487</v>
@@ -15216,7 +15293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="3:8" s="31" customFormat="1">
+    <row r="163" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C163" s="33"/>
       <c r="F163" s="32" t="s">
         <v>19</v>
@@ -15225,7 +15302,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="164" spans="3:8" s="31" customFormat="1">
+    <row r="164" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C164" s="33"/>
       <c r="F164" s="32" t="s">
         <v>14</v>
@@ -15234,7 +15311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="3:8" s="31" customFormat="1">
+    <row r="165" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C165" s="33"/>
       <c r="F165" s="32" t="s">
         <v>16</v>
@@ -15243,7 +15320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="3:8" s="31" customFormat="1">
+    <row r="166" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C166" s="33"/>
       <c r="E166" s="32"/>
       <c r="F166" s="32" t="s">
@@ -15253,17 +15330,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="3:8" s="31" customFormat="1">
+    <row r="167" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C167" s="33"/>
       <c r="E167" s="32"/>
       <c r="F167" s="32" t="s">
         <v>62</v>
       </c>
       <c r="G167" s="32" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="168" spans="3:8" s="31" customFormat="1">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="168" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C168" s="33"/>
       <c r="E168" s="32"/>
       <c r="F168" s="32" t="s">
@@ -15273,32 +15350,32 @@
         <v>65</v>
       </c>
     </row>
-    <row r="169" spans="3:8" s="31" customFormat="1">
+    <row r="169" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C169" s="33"/>
       <c r="E169" s="32"/>
       <c r="F169" s="32"/>
       <c r="G169" s="32"/>
     </row>
-    <row r="170" spans="3:8" s="51" customFormat="1">
+    <row r="170" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C170" s="53"/>
       <c r="D170" s="51" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E170" s="32" t="s">
         <v>488</v>
       </c>
       <c r="F170" s="52" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G170" s="52"/>
     </row>
-    <row r="171" spans="3:8" s="31" customFormat="1">
+    <row r="171" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C171" s="33"/>
       <c r="F171" s="31" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="172" spans="3:8" s="31" customFormat="1">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="172" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C172" s="33"/>
       <c r="E172" s="32"/>
       <c r="G172" s="32" t="s">
@@ -15308,7 +15385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="3:8" s="31" customFormat="1">
+    <row r="173" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C173" s="33"/>
       <c r="E173" s="32"/>
       <c r="G173" s="32" t="s">
@@ -15318,7 +15395,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="174" spans="3:8" s="31" customFormat="1">
+    <row r="174" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C174" s="33"/>
       <c r="E174" s="32"/>
       <c r="G174" s="32" t="s">
@@ -15328,7 +15405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="3:8" s="31" customFormat="1">
+    <row r="175" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C175" s="33"/>
       <c r="E175" s="32"/>
       <c r="G175" s="32" t="s">
@@ -15338,7 +15415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="3:8" s="31" customFormat="1">
+    <row r="176" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C176" s="33"/>
       <c r="E176" s="32"/>
       <c r="G176" s="32" t="s">
@@ -15348,7 +15425,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="2:17">
+    <row r="177" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G177" s="32" t="s">
         <v>62</v>
       </c>
@@ -15356,7 +15433,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="178" spans="2:17" s="51" customFormat="1">
+    <row r="178" spans="2:17" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F178" s="52"/>
       <c r="G178" s="32" t="s">
         <v>64</v>
@@ -15365,16 +15442,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="179" spans="2:17" s="51" customFormat="1">
+    <row r="179" spans="2:17" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E179" s="52"/>
       <c r="F179" s="52"/>
     </row>
-    <row r="180" spans="2:17" s="34" customFormat="1">
+    <row r="180" spans="2:17" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B180" s="34" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="181" spans="2:17" s="51" customFormat="1">
+    <row r="181" spans="2:17" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B181" s="51" t="s">
         <v>179</v>
       </c>
@@ -15382,10 +15459,10 @@
         <v>83</v>
       </c>
       <c r="D181" s="51" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="182" spans="2:17" s="51" customFormat="1">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="182" spans="2:17" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C182" s="53" t="s">
         <v>84</v>
       </c>
@@ -15393,7 +15470,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="2:17" s="51" customFormat="1">
+    <row r="183" spans="2:17" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C183" s="53" t="s">
         <v>85</v>
       </c>
@@ -15401,7 +15478,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="184" spans="2:17" s="51" customFormat="1">
+    <row r="184" spans="2:17" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C184" s="53" t="s">
         <v>86</v>
       </c>
@@ -15409,7 +15486,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="2:17" s="51" customFormat="1">
+    <row r="185" spans="2:17" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C185" s="53" t="s">
         <v>87</v>
       </c>
@@ -15417,22 +15494,22 @@
         <v>222</v>
       </c>
     </row>
-    <row r="186" spans="2:17" s="51" customFormat="1">
+    <row r="186" spans="2:17" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C186" s="53"/>
       <c r="D186" s="51" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="187" spans="2:17" s="51" customFormat="1">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="187" spans="2:17" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C187" s="53"/>
       <c r="D187" s="51" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="188" spans="2:17" s="51" customFormat="1">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="188" spans="2:17" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C188" s="53"/>
       <c r="D188" s="34" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E188" s="34"/>
       <c r="F188" s="34"/>
@@ -15448,11 +15525,11 @@
       <c r="P188" s="34"/>
       <c r="Q188" s="34"/>
     </row>
-    <row r="189" spans="2:17" s="51" customFormat="1">
+    <row r="189" spans="2:17" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C189" s="53"/>
       <c r="D189" s="34"/>
       <c r="E189" s="34" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="F189" s="34"/>
       <c r="G189" s="34"/>
@@ -15467,11 +15544,11 @@
       <c r="P189" s="34"/>
       <c r="Q189" s="34"/>
     </row>
-    <row r="190" spans="2:17" s="51" customFormat="1">
+    <row r="190" spans="2:17" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C190" s="53"/>
       <c r="D190" s="34"/>
       <c r="E190" s="34" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="F190" s="34"/>
       <c r="G190" s="34"/>
@@ -15486,12 +15563,12 @@
       <c r="P190" s="34"/>
       <c r="Q190" s="34"/>
     </row>
-    <row r="191" spans="2:17" s="51" customFormat="1">
+    <row r="191" spans="2:17" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C191" s="53"/>
       <c r="D191" s="34"/>
       <c r="E191" s="34"/>
       <c r="F191" s="34" t="s">
-        <v>704</v>
+        <v>686</v>
       </c>
       <c r="G191" s="34"/>
       <c r="H191" s="34"/>
@@ -15505,12 +15582,12 @@
       <c r="P191" s="34"/>
       <c r="Q191" s="34"/>
     </row>
-    <row r="192" spans="2:17" s="51" customFormat="1">
+    <row r="192" spans="2:17" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C192" s="53"/>
       <c r="D192" s="34"/>
       <c r="E192" s="34"/>
       <c r="F192" s="34" t="s">
-        <v>708</v>
+        <v>689</v>
       </c>
       <c r="G192" s="34"/>
       <c r="H192" s="34"/>
@@ -15524,11 +15601,11 @@
       <c r="P192" s="34"/>
       <c r="Q192" s="34"/>
     </row>
-    <row r="193" spans="3:17" s="51" customFormat="1">
+    <row r="193" spans="3:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C193" s="53"/>
       <c r="D193" s="34"/>
       <c r="E193" s="34" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="F193" s="34"/>
       <c r="G193" s="34"/>
@@ -15543,10 +15620,10 @@
       <c r="P193" s="34"/>
       <c r="Q193" s="34"/>
     </row>
-    <row r="194" spans="3:17" s="51" customFormat="1">
+    <row r="194" spans="3:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C194" s="53"/>
       <c r="D194" s="34" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E194" s="34"/>
       <c r="F194" s="34"/>
@@ -15562,11 +15639,11 @@
       <c r="P194" s="34"/>
       <c r="Q194" s="34"/>
     </row>
-    <row r="195" spans="3:17" s="51" customFormat="1">
+    <row r="195" spans="3:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C195" s="53"/>
       <c r="D195" s="34"/>
       <c r="E195" s="34" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F195" s="34"/>
       <c r="G195" s="34"/>
@@ -15581,11 +15658,11 @@
       <c r="P195" s="34"/>
       <c r="Q195" s="34"/>
     </row>
-    <row r="196" spans="3:17" s="51" customFormat="1">
+    <row r="196" spans="3:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C196" s="53"/>
       <c r="D196" s="34"/>
       <c r="E196" s="34" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="F196" s="34"/>
       <c r="G196" s="34"/>
@@ -15600,11 +15677,11 @@
       <c r="P196" s="34"/>
       <c r="Q196" s="34"/>
     </row>
-    <row r="197" spans="3:17" s="51" customFormat="1">
+    <row r="197" spans="3:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C197" s="53"/>
       <c r="D197" s="34"/>
       <c r="E197" s="34" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F197" s="34"/>
       <c r="G197" s="34"/>
@@ -15618,11 +15695,12 @@
       <c r="O197" s="34"/>
       <c r="P197" s="34"/>
       <c r="Q197" s="34"/>
-    </row>
-    <row r="198" spans="3:17" s="51" customFormat="1">
+      <c r="S197" s="52"/>
+    </row>
+    <row r="198" spans="3:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C198" s="53"/>
     </row>
-    <row r="199" spans="3:17" s="51" customFormat="1">
+    <row r="199" spans="3:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C199" s="53" t="s">
         <v>88</v>
       </c>
@@ -15630,7 +15708,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="200" spans="3:17" s="51" customFormat="1">
+    <row r="200" spans="3:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C200" s="53" t="s">
         <v>89</v>
       </c>
@@ -15638,7 +15716,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="201" spans="3:17" s="51" customFormat="1">
+    <row r="201" spans="3:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C201" s="53" t="s">
         <v>91</v>
       </c>
@@ -15646,7 +15724,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="202" spans="3:17" s="51" customFormat="1">
+    <row r="202" spans="3:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C202" s="53" t="s">
         <v>79</v>
       </c>
@@ -15654,10 +15732,10 @@
         <v>10</v>
       </c>
       <c r="E202" s="51" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="203" spans="3:17" s="51" customFormat="1">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="203" spans="3:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C203" s="53" t="s">
         <v>92</v>
       </c>
@@ -15665,12 +15743,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="204" spans="3:17" s="51" customFormat="1">
+    <row r="204" spans="3:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C204" s="53" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D204" s="34" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="E204" s="34"/>
       <c r="F204" s="34"/>
@@ -15680,12 +15758,12 @@
       <c r="J204" s="34"/>
       <c r="K204" s="34"/>
     </row>
-    <row r="205" spans="3:17" s="51" customFormat="1">
+    <row r="205" spans="3:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C205" s="53" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D205" s="34" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="E205" s="34"/>
       <c r="F205" s="34"/>
@@ -15695,26 +15773,26 @@
       <c r="J205" s="34"/>
       <c r="K205" s="34"/>
     </row>
-    <row r="206" spans="3:17" s="51" customFormat="1">
+    <row r="206" spans="3:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C206" s="53" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D206" s="51" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="207" spans="3:17" s="51" customFormat="1">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="207" spans="3:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C207" s="53"/>
     </row>
-    <row r="208" spans="3:17" s="51" customFormat="1">
+    <row r="208" spans="3:19" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C208" s="53" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D208" s="51" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E208" s="52" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F208" s="52" t="s">
         <v>9</v>
@@ -15723,17 +15801,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="3:7" s="51" customFormat="1">
+    <row r="209" spans="3:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C209" s="53"/>
       <c r="E209" s="52"/>
       <c r="F209" s="52" t="s">
         <v>19</v>
       </c>
       <c r="G209" s="52" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="210" spans="3:7" s="51" customFormat="1">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="210" spans="3:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C210" s="53"/>
       <c r="E210" s="52"/>
       <c r="F210" s="52" t="s">
@@ -15743,7 +15821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="3:7" s="51" customFormat="1">
+    <row r="211" spans="3:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C211" s="53"/>
       <c r="E211" s="52"/>
       <c r="F211" s="52" t="s">
@@ -15753,7 +15831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="3:7" s="51" customFormat="1">
+    <row r="212" spans="3:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C212" s="53"/>
       <c r="E212" s="52"/>
       <c r="F212" s="52" t="s">
@@ -15763,39 +15841,39 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="3:7" s="51" customFormat="1">
+    <row r="213" spans="3:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C213" s="53"/>
       <c r="E213" s="52"/>
       <c r="F213" s="52" t="s">
         <v>62</v>
       </c>
       <c r="G213" s="52" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="214" spans="3:7" s="51" customFormat="1">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="214" spans="3:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C214" s="53"/>
       <c r="E214" s="52"/>
       <c r="F214" s="52" t="s">
         <v>64</v>
       </c>
       <c r="G214" s="52" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="215" spans="3:7" s="51" customFormat="1">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="215" spans="3:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C215" s="53"/>
       <c r="E215" s="52"/>
       <c r="F215" s="52"/>
       <c r="G215" s="52"/>
     </row>
-    <row r="216" spans="3:7" s="51" customFormat="1">
+    <row r="216" spans="3:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C216" s="53"/>
       <c r="D216" s="51" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E216" s="52" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F216" s="52" t="s">
         <v>9</v>
@@ -15804,17 +15882,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="3:7" s="51" customFormat="1">
+    <row r="217" spans="3:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C217" s="53"/>
       <c r="E217" s="52"/>
       <c r="F217" s="52" t="s">
         <v>19</v>
       </c>
       <c r="G217" s="52" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="218" spans="3:7" s="51" customFormat="1">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="218" spans="3:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C218" s="53"/>
       <c r="E218" s="52"/>
       <c r="F218" s="52" t="s">
@@ -15824,7 +15902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="3:7" s="51" customFormat="1">
+    <row r="219" spans="3:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C219" s="53"/>
       <c r="E219" s="52"/>
       <c r="F219" s="52" t="s">
@@ -15834,7 +15912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="3:7" s="51" customFormat="1">
+    <row r="220" spans="3:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C220" s="53"/>
       <c r="E220" s="52"/>
       <c r="F220" s="52" t="s">
@@ -15844,17 +15922,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="221" spans="3:7" s="51" customFormat="1">
+    <row r="221" spans="3:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C221" s="53"/>
       <c r="E221" s="52"/>
       <c r="F221" s="52" t="s">
         <v>62</v>
       </c>
       <c r="G221" s="52" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="222" spans="3:7" s="51" customFormat="1">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="222" spans="3:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C222" s="53"/>
       <c r="E222" s="52"/>
       <c r="F222" s="52" t="s">
@@ -15864,13 +15942,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="223" spans="3:7" s="51" customFormat="1">
+    <row r="223" spans="3:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C223" s="53"/>
     </row>
-    <row r="224" spans="3:7" s="51" customFormat="1">
+    <row r="224" spans="3:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C224" s="53"/>
       <c r="D224" s="51" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E224" s="52" t="s">
         <v>435</v>
@@ -15882,7 +15960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="3:8" s="51" customFormat="1">
+    <row r="225" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C225" s="53"/>
       <c r="E225" s="52"/>
       <c r="F225" s="52" t="s">
@@ -15892,7 +15970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="226" spans="3:8" s="51" customFormat="1">
+    <row r="226" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C226" s="53"/>
       <c r="E226" s="52"/>
       <c r="F226" s="52" t="s">
@@ -15902,7 +15980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="3:8" s="51" customFormat="1">
+    <row r="227" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C227" s="53"/>
       <c r="E227" s="52"/>
       <c r="F227" s="52" t="s">
@@ -15912,7 +15990,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="228" spans="3:8" s="51" customFormat="1">
+    <row r="228" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C228" s="53"/>
       <c r="E228" s="52"/>
       <c r="F228" s="52" t="s">
@@ -15922,17 +16000,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="229" spans="3:8" s="51" customFormat="1">
+    <row r="229" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C229" s="53"/>
       <c r="E229" s="52"/>
       <c r="F229" s="52" t="s">
         <v>62</v>
       </c>
       <c r="G229" s="52" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="230" spans="3:8" s="51" customFormat="1">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="230" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C230" s="53"/>
       <c r="E230" s="52"/>
       <c r="F230" s="52" t="s">
@@ -15942,29 +16020,29 @@
         <v>65</v>
       </c>
     </row>
-    <row r="231" spans="3:8" s="51" customFormat="1">
+    <row r="231" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C231" s="53"/>
     </row>
-    <row r="232" spans="3:8" s="51" customFormat="1">
+    <row r="232" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C232" s="53"/>
       <c r="D232" s="51" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E232" s="52" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F232" s="51" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="233" spans="3:8" s="51" customFormat="1">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="233" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C233" s="53"/>
       <c r="E233" s="52"/>
       <c r="F233" s="51" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="234" spans="3:8" s="51" customFormat="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="234" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C234" s="53"/>
       <c r="E234" s="52"/>
       <c r="G234" s="52" t="s">
@@ -15974,7 +16052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="3:8" s="51" customFormat="1">
+    <row r="235" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C235" s="53"/>
       <c r="E235" s="52"/>
       <c r="G235" s="52" t="s">
@@ -15984,7 +16062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="3:8" s="51" customFormat="1">
+    <row r="236" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C236" s="53"/>
       <c r="E236" s="52"/>
       <c r="G236" s="52" t="s">
@@ -15994,7 +16072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="3:8" s="51" customFormat="1">
+    <row r="237" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C237" s="53"/>
       <c r="E237" s="52"/>
       <c r="G237" s="52" t="s">
@@ -16004,7 +16082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="3:8" s="51" customFormat="1">
+    <row r="238" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C238" s="53"/>
       <c r="E238" s="52"/>
       <c r="G238" s="52" t="s">
@@ -16014,7 +16092,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="3:8" s="51" customFormat="1">
+    <row r="239" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C239" s="53"/>
       <c r="G239" s="52" t="s">
         <v>62</v>
@@ -16023,7 +16101,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="240" spans="3:8" s="51" customFormat="1">
+    <row r="240" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C240" s="53"/>
       <c r="G240" s="52" t="s">
         <v>64</v>
@@ -16032,10 +16110,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="241" spans="2:16" s="51" customFormat="1">
+    <row r="241" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C241" s="53"/>
     </row>
-    <row r="242" spans="2:16" s="51" customFormat="1">
+    <row r="242" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B242" s="52"/>
       <c r="C242" s="53"/>
       <c r="D242" s="52"/>
@@ -16052,12 +16130,12 @@
       <c r="O242" s="52"/>
       <c r="P242" s="52"/>
     </row>
-    <row r="243" spans="2:16" s="34" customFormat="1">
+    <row r="243" spans="2:16" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B243" s="34" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="244" spans="2:16" s="51" customFormat="1">
+    <row r="244" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B244" s="51" t="s">
         <v>192</v>
       </c>
@@ -16065,10 +16143,10 @@
         <v>83</v>
       </c>
       <c r="D244" s="51" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="245" spans="2:16" s="51" customFormat="1">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="245" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C245" s="53" t="s">
         <v>84</v>
       </c>
@@ -16076,7 +16154,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="246" spans="2:16" s="51" customFormat="1">
+    <row r="246" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C246" s="53" t="s">
         <v>85</v>
       </c>
@@ -16084,7 +16162,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="247" spans="2:16" s="51" customFormat="1">
+    <row r="247" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C247" s="53" t="s">
         <v>86</v>
       </c>
@@ -16092,7 +16170,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="248" spans="2:16" s="51" customFormat="1">
+    <row r="248" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C248" s="53" t="s">
         <v>87</v>
       </c>
@@ -16100,43 +16178,43 @@
         <v>213</v>
       </c>
     </row>
-    <row r="249" spans="2:16" s="51" customFormat="1">
+    <row r="249" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C249" s="53"/>
       <c r="D249" s="51" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="250" spans="2:16" s="51" customFormat="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="250" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C250" s="53"/>
     </row>
-    <row r="251" spans="2:16" s="51" customFormat="1">
+    <row r="251" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C251" s="53"/>
       <c r="D251" s="51" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="252" spans="2:16" s="51" customFormat="1">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="252" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C252" s="53"/>
       <c r="E252" s="51" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="253" spans="2:16" s="51" customFormat="1">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="253" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C253" s="53"/>
       <c r="E253" s="51" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="254" spans="2:16" s="51" customFormat="1">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="254" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C254" s="53"/>
       <c r="E254" s="51" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="255" spans="2:16" s="51" customFormat="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="255" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C255" s="53"/>
     </row>
-    <row r="256" spans="2:16" s="51" customFormat="1">
+    <row r="256" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C256" s="53" t="s">
         <v>88</v>
       </c>
@@ -16144,7 +16222,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="257" spans="2:16" s="51" customFormat="1">
+    <row r="257" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C257" s="53" t="s">
         <v>89</v>
       </c>
@@ -16152,7 +16230,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="258" spans="2:16" s="51" customFormat="1">
+    <row r="258" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C258" s="53" t="s">
         <v>91</v>
       </c>
@@ -16160,7 +16238,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="259" spans="2:16" s="51" customFormat="1">
+    <row r="259" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C259" s="53" t="s">
         <v>79</v>
       </c>
@@ -16168,7 +16246,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="260" spans="2:16" s="51" customFormat="1">
+    <row r="260" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C260" s="53" t="s">
         <v>92</v>
       </c>
@@ -16176,18 +16254,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="2:16" s="51" customFormat="1">
+    <row r="261" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C261" s="53" t="s">
+        <v>518</v>
+      </c>
+      <c r="D261" s="51" t="s">
         <v>519</v>
       </c>
-      <c r="D261" s="51" t="s">
+      <c r="E261" s="51" t="s">
         <v>520</v>
       </c>
-      <c r="E261" s="51" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="262" spans="2:16" s="51" customFormat="1">
+    </row>
+    <row r="262" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B262" s="52"/>
       <c r="C262" s="53"/>
       <c r="D262" s="52"/>
@@ -16204,10 +16282,10 @@
       <c r="O262" s="52"/>
       <c r="P262" s="52"/>
     </row>
-    <row r="263" spans="2:16" s="51" customFormat="1">
+    <row r="263" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B263" s="52"/>
       <c r="C263" s="53" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D263" s="52"/>
       <c r="E263" s="52"/>
@@ -16223,14 +16301,14 @@
       <c r="O263" s="52"/>
       <c r="P263" s="52"/>
     </row>
-    <row r="264" spans="2:16" s="51" customFormat="1">
+    <row r="264" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B264" s="52"/>
       <c r="C264" s="53"/>
       <c r="D264" s="52" t="s">
         <v>358</v>
       </c>
       <c r="E264" s="52" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F264" s="52"/>
       <c r="G264" s="52"/>
@@ -16244,7 +16322,7 @@
       <c r="O264" s="52"/>
       <c r="P264" s="52"/>
     </row>
-    <row r="265" spans="2:16" s="51" customFormat="1">
+    <row r="265" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B265" s="52"/>
       <c r="C265" s="53"/>
       <c r="D265" s="52"/>
@@ -16265,7 +16343,7 @@
       <c r="O265" s="52"/>
       <c r="P265" s="52"/>
     </row>
-    <row r="266" spans="2:16" s="51" customFormat="1">
+    <row r="266" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B266" s="52"/>
       <c r="C266" s="53"/>
       <c r="D266" s="52"/>
@@ -16286,7 +16364,7 @@
       <c r="O266" s="52"/>
       <c r="P266" s="52"/>
     </row>
-    <row r="267" spans="2:16" s="51" customFormat="1">
+    <row r="267" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B267" s="52"/>
       <c r="C267" s="53"/>
       <c r="D267" s="52"/>
@@ -16307,7 +16385,7 @@
       <c r="O267" s="52"/>
       <c r="P267" s="52"/>
     </row>
-    <row r="268" spans="2:16" s="51" customFormat="1">
+    <row r="268" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B268" s="52"/>
       <c r="C268" s="53"/>
       <c r="D268" s="52"/>
@@ -16328,7 +16406,7 @@
       <c r="O268" s="52"/>
       <c r="P268" s="52"/>
     </row>
-    <row r="269" spans="2:16" s="51" customFormat="1">
+    <row r="269" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B269" s="52"/>
       <c r="C269" s="53"/>
       <c r="D269" s="52"/>
@@ -16349,7 +16427,7 @@
       <c r="O269" s="52"/>
       <c r="P269" s="52"/>
     </row>
-    <row r="270" spans="2:16" s="51" customFormat="1">
+    <row r="270" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B270" s="52"/>
       <c r="C270" s="53"/>
       <c r="D270" s="52"/>
@@ -16370,7 +16448,7 @@
       <c r="O270" s="52"/>
       <c r="P270" s="52"/>
     </row>
-    <row r="271" spans="2:16" s="51" customFormat="1">
+    <row r="271" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B271" s="52"/>
       <c r="C271" s="53"/>
       <c r="D271" s="52"/>
@@ -16391,7 +16469,7 @@
       <c r="O271" s="52"/>
       <c r="P271" s="52"/>
     </row>
-    <row r="272" spans="2:16" s="51" customFormat="1">
+    <row r="272" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B272" s="52"/>
       <c r="C272" s="53"/>
       <c r="D272" s="52"/>
@@ -16408,12 +16486,12 @@
       <c r="O272" s="52"/>
       <c r="P272" s="52"/>
     </row>
-    <row r="273" spans="2:16" s="51" customFormat="1">
+    <row r="273" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B273" s="52"/>
       <c r="C273" s="53"/>
       <c r="D273" s="52"/>
       <c r="E273" s="52" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F273" s="52"/>
       <c r="G273" s="52"/>
@@ -16427,7 +16505,7 @@
       <c r="O273" s="52"/>
       <c r="P273" s="52"/>
     </row>
-    <row r="274" spans="2:16" s="51" customFormat="1">
+    <row r="274" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B274" s="52"/>
       <c r="C274" s="53"/>
       <c r="D274" s="52"/>
@@ -16448,7 +16526,7 @@
       <c r="O274" s="52"/>
       <c r="P274" s="52"/>
     </row>
-    <row r="275" spans="2:16" s="51" customFormat="1">
+    <row r="275" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B275" s="52"/>
       <c r="C275" s="53"/>
       <c r="D275" s="52"/>
@@ -16469,7 +16547,7 @@
       <c r="O275" s="52"/>
       <c r="P275" s="52"/>
     </row>
-    <row r="276" spans="2:16" s="51" customFormat="1">
+    <row r="276" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B276" s="52"/>
       <c r="C276" s="53"/>
       <c r="D276" s="52"/>
@@ -16490,7 +16568,7 @@
       <c r="O276" s="52"/>
       <c r="P276" s="52"/>
     </row>
-    <row r="277" spans="2:16" s="51" customFormat="1">
+    <row r="277" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B277" s="52"/>
       <c r="C277" s="53"/>
       <c r="D277" s="52"/>
@@ -16511,7 +16589,7 @@
       <c r="O277" s="52"/>
       <c r="P277" s="52"/>
     </row>
-    <row r="278" spans="2:16" s="51" customFormat="1">
+    <row r="278" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B278" s="52"/>
       <c r="C278" s="53"/>
       <c r="D278" s="52"/>
@@ -16532,7 +16610,7 @@
       <c r="O278" s="52"/>
       <c r="P278" s="52"/>
     </row>
-    <row r="279" spans="2:16" s="51" customFormat="1">
+    <row r="279" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B279" s="52"/>
       <c r="C279" s="53"/>
       <c r="D279" s="52"/>
@@ -16553,7 +16631,7 @@
       <c r="O279" s="52"/>
       <c r="P279" s="52"/>
     </row>
-    <row r="280" spans="2:16" s="51" customFormat="1">
+    <row r="280" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B280" s="52"/>
       <c r="C280" s="53"/>
       <c r="D280" s="52"/>
@@ -16574,7 +16652,7 @@
       <c r="O280" s="52"/>
       <c r="P280" s="52"/>
     </row>
-    <row r="281" spans="2:16" s="51" customFormat="1">
+    <row r="281" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B281" s="52"/>
       <c r="C281" s="53"/>
       <c r="D281" s="52"/>
@@ -16591,11 +16669,11 @@
       <c r="O281" s="52"/>
       <c r="P281" s="52"/>
     </row>
-    <row r="282" spans="2:16" s="51" customFormat="1">
+    <row r="282" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B282" s="52"/>
       <c r="C282" s="53"/>
       <c r="D282" s="52" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E282" s="52"/>
       <c r="F282" s="52"/>
@@ -16610,7 +16688,7 @@
       <c r="O282" s="52"/>
       <c r="P282" s="52"/>
     </row>
-    <row r="283" spans="2:16" s="51" customFormat="1">
+    <row r="283" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B283" s="52"/>
       <c r="C283" s="53"/>
       <c r="D283" s="52"/>
@@ -16627,7 +16705,7 @@
       <c r="O283" s="52"/>
       <c r="P283" s="52"/>
     </row>
-    <row r="284" spans="2:16" s="51" customFormat="1">
+    <row r="284" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B284" s="52"/>
       <c r="C284" s="53"/>
       <c r="D284" s="52"/>
@@ -16644,7 +16722,7 @@
       <c r="O284" s="52"/>
       <c r="P284" s="52"/>
     </row>
-    <row r="285" spans="2:16" s="51" customFormat="1">
+    <row r="285" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B285" s="52"/>
       <c r="C285" s="53"/>
       <c r="D285" s="52"/>
@@ -16661,23 +16739,23 @@
       <c r="O285" s="52"/>
       <c r="P285" s="52"/>
     </row>
-    <row r="286" spans="2:16" s="34" customFormat="1">
+    <row r="286" spans="2:16" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B286" s="34" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="287" spans="2:16" s="51" customFormat="1">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="287" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B287" s="51" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C287" s="53" t="s">
         <v>83</v>
       </c>
       <c r="D287" s="51" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="288" spans="2:16" s="51" customFormat="1">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="288" spans="2:16" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C288" s="53" t="s">
         <v>84</v>
       </c>
@@ -16685,23 +16763,23 @@
         <v>182</v>
       </c>
     </row>
-    <row r="289" spans="3:5" s="51" customFormat="1">
+    <row r="289" spans="3:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C289" s="53" t="s">
         <v>85</v>
       </c>
       <c r="D289" s="51" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="290" spans="3:5" s="51" customFormat="1">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="290" spans="3:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C290" s="53" t="s">
         <v>86</v>
       </c>
       <c r="D290" s="51" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="291" spans="3:5" s="51" customFormat="1">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="291" spans="3:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C291" s="53" t="s">
         <v>87</v>
       </c>
@@ -16709,49 +16787,49 @@
         <v>437</v>
       </c>
     </row>
-    <row r="292" spans="3:5" s="51" customFormat="1">
+    <row r="292" spans="3:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C292" s="53"/>
       <c r="D292" s="51" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="293" spans="3:5" s="51" customFormat="1">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="293" spans="3:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C293" s="53"/>
       <c r="D293" s="51" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="294" spans="3:5" s="51" customFormat="1">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="294" spans="3:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C294" s="53"/>
       <c r="E294" s="51" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="295" spans="3:5" s="51" customFormat="1">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="295" spans="3:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C295" s="53"/>
       <c r="E295" s="51" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="296" spans="3:5" s="51" customFormat="1">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="296" spans="3:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C296" s="53"/>
     </row>
-    <row r="297" spans="3:5" s="51" customFormat="1">
+    <row r="297" spans="3:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C297" s="53"/>
       <c r="D297" s="51" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="298" spans="3:5" s="51" customFormat="1">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="298" spans="3:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C298" s="53"/>
       <c r="E298" s="51" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="299" spans="3:5" s="51" customFormat="1">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="299" spans="3:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C299" s="53"/>
     </row>
-    <row r="300" spans="3:5" s="51" customFormat="1">
+    <row r="300" spans="3:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C300" s="53" t="s">
         <v>88</v>
       </c>
@@ -16759,7 +16837,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="301" spans="3:5" s="51" customFormat="1">
+    <row r="301" spans="3:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C301" s="53" t="s">
         <v>89</v>
       </c>
@@ -16767,7 +16845,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="302" spans="3:5" s="51" customFormat="1">
+    <row r="302" spans="3:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C302" s="53" t="s">
         <v>91</v>
       </c>
@@ -16775,52 +16853,52 @@
         <v>207</v>
       </c>
     </row>
-    <row r="303" spans="3:5" s="51" customFormat="1">
+    <row r="303" spans="3:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C303" s="53" t="s">
         <v>79</v>
       </c>
       <c r="D303" s="51" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="304" spans="3:5" s="51" customFormat="1">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="304" spans="3:5" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C304" s="53" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D304" s="51" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="305" spans="3:8" s="31" customFormat="1">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="305" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C305" s="25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D305" s="31" t="s">
-        <v>546</v>
+        <v>717</v>
       </c>
       <c r="E305" s="32"/>
       <c r="F305" s="32"/>
     </row>
-    <row r="306" spans="3:8" s="31" customFormat="1">
-      <c r="D306" s="31" t="s">
-        <v>584</v>
+    <row r="306" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D306" s="54" t="s">
+        <v>709</v>
       </c>
       <c r="E306" s="32"/>
       <c r="F306" s="32"/>
     </row>
-    <row r="307" spans="3:8" s="31" customFormat="1">
+    <row r="307" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C307" s="25" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E307" s="32"/>
       <c r="F307" s="32"/>
     </row>
-    <row r="308" spans="3:8" s="31" customFormat="1">
+    <row r="308" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D308" s="31" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E308" s="51" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F308" s="52" t="s">
         <v>9</v>
@@ -16830,7 +16908,7 @@
       </c>
       <c r="H308" s="51"/>
     </row>
-    <row r="309" spans="3:8" s="31" customFormat="1">
+    <row r="309" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E309" s="51"/>
       <c r="F309" s="52" t="s">
         <v>19</v>
@@ -16840,15 +16918,15 @@
       </c>
       <c r="H309" s="51"/>
     </row>
-    <row r="310" spans="3:8" s="51" customFormat="1">
+    <row r="310" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F310" s="52" t="s">
         <v>14</v>
       </c>
       <c r="G310" s="52" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="311" spans="3:8" s="51" customFormat="1">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="311" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F311" s="52" t="s">
         <v>16</v>
       </c>
@@ -16856,7 +16934,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="312" spans="3:8" s="51" customFormat="1">
+    <row r="312" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F312" s="52" t="s">
         <v>17</v>
       </c>
@@ -16864,7 +16942,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="313" spans="3:8" s="51" customFormat="1">
+    <row r="313" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F313" s="52" t="s">
         <v>62</v>
       </c>
@@ -16872,7 +16950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="314" spans="3:8" s="51" customFormat="1">
+    <row r="314" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F314" s="52" t="s">
         <v>64</v>
       </c>
@@ -16880,13 +16958,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="315" spans="3:8" s="51" customFormat="1"/>
-    <row r="316" spans="3:8" s="51" customFormat="1">
+    <row r="315" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="316" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D316" s="51" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E316" s="51" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F316" s="52" t="s">
         <v>9</v>
@@ -16895,7 +16973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="3:8" s="51" customFormat="1">
+    <row r="317" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F317" s="52" t="s">
         <v>19</v>
       </c>
@@ -16903,15 +16981,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="318" spans="3:8" s="51" customFormat="1">
+    <row r="318" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F318" s="52" t="s">
         <v>14</v>
       </c>
       <c r="G318" s="52" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="319" spans="3:8" s="51" customFormat="1">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="319" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F319" s="52" t="s">
         <v>16</v>
       </c>
@@ -16919,7 +16997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="3:8" s="51" customFormat="1">
+    <row r="320" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F320" s="52" t="s">
         <v>17</v>
       </c>
@@ -16927,7 +17005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="321" spans="4:8" s="51" customFormat="1">
+    <row r="321" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F321" s="52" t="s">
         <v>62</v>
       </c>
@@ -16935,7 +17013,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="322" spans="4:8" s="51" customFormat="1">
+    <row r="322" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F322" s="52" t="s">
         <v>64</v>
       </c>
@@ -16943,30 +17021,30 @@
         <v>65</v>
       </c>
     </row>
-    <row r="323" spans="4:8" s="51" customFormat="1"/>
-    <row r="324" spans="4:8" s="51" customFormat="1">
+    <row r="323" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="324" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D324" s="51" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E324" s="51" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F324" s="51" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="325" spans="4:8" s="51" customFormat="1">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="325" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F325" s="51" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G325" s="52" t="s">
         <v>9</v>
       </c>
       <c r="H325" s="52" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="326" spans="4:8" s="51" customFormat="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="326" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G326" s="52" t="s">
         <v>19</v>
       </c>
@@ -16974,7 +17052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="4:8" s="51" customFormat="1">
+    <row r="327" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G327" s="52" t="s">
         <v>14</v>
       </c>
@@ -16982,7 +17060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="328" spans="4:8" s="51" customFormat="1">
+    <row r="328" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G328" s="52" t="s">
         <v>16</v>
       </c>
@@ -16990,7 +17068,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="329" spans="4:8" s="51" customFormat="1">
+    <row r="329" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G329" s="52" t="s">
         <v>17</v>
       </c>
@@ -16998,15 +17076,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="330" spans="4:8" s="51" customFormat="1">
+    <row r="330" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G330" s="52" t="s">
         <v>62</v>
       </c>
       <c r="H330" s="52" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="331" spans="4:8" s="51" customFormat="1">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="331" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F331" s="52"/>
       <c r="G331" s="52" t="s">
         <v>64</v>
@@ -17015,34 +17093,34 @@
         <v>286</v>
       </c>
     </row>
-    <row r="332" spans="4:8" s="51" customFormat="1">
+    <row r="332" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F332" s="52"/>
       <c r="G332" s="52"/>
       <c r="H332" s="52"/>
     </row>
-    <row r="333" spans="4:8" s="51" customFormat="1">
+    <row r="333" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D333" s="51" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E333" s="51" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F333" s="51" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="334" spans="4:8" s="51" customFormat="1">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="334" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F334" s="51" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G334" s="52" t="s">
         <v>9</v>
       </c>
       <c r="H334" s="52" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="335" spans="4:8" s="51" customFormat="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="335" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G335" s="52" t="s">
         <v>19</v>
       </c>
@@ -17050,7 +17128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="4:8" s="51" customFormat="1">
+    <row r="336" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G336" s="52" t="s">
         <v>14</v>
       </c>
@@ -17058,7 +17136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="4:8" s="51" customFormat="1">
+    <row r="337" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G337" s="52" t="s">
         <v>16</v>
       </c>
@@ -17066,7 +17144,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="338" spans="4:8" s="51" customFormat="1">
+    <row r="338" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G338" s="52" t="s">
         <v>17</v>
       </c>
@@ -17074,15 +17152,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="339" spans="4:8" s="51" customFormat="1">
+    <row r="339" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G339" s="52" t="s">
         <v>62</v>
       </c>
       <c r="H339" s="52" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="340" spans="4:8" s="51" customFormat="1">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="340" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F340" s="52"/>
       <c r="G340" s="52" t="s">
         <v>64</v>
@@ -17091,34 +17169,34 @@
         <v>65</v>
       </c>
     </row>
-    <row r="341" spans="4:8" s="51" customFormat="1">
+    <row r="341" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F341" s="52"/>
       <c r="G341" s="52"/>
       <c r="H341" s="52"/>
     </row>
-    <row r="342" spans="4:8" s="51" customFormat="1">
+    <row r="342" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D342" s="51" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E342" s="51" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F342" s="51" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="343" spans="4:8" s="51" customFormat="1">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="343" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F343" s="51" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G343" s="52" t="s">
         <v>9</v>
       </c>
       <c r="H343" s="52" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="344" spans="4:8" s="51" customFormat="1">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="344" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G344" s="52" t="s">
         <v>19</v>
       </c>
@@ -17126,7 +17204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="4:8" s="51" customFormat="1">
+    <row r="345" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G345" s="52" t="s">
         <v>14</v>
       </c>
@@ -17134,7 +17212,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="346" spans="4:8" s="51" customFormat="1">
+    <row r="346" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G346" s="52" t="s">
         <v>16</v>
       </c>
@@ -17142,7 +17220,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="347" spans="4:8" s="51" customFormat="1">
+    <row r="347" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G347" s="52" t="s">
         <v>17</v>
       </c>
@@ -17150,15 +17228,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="348" spans="4:8" s="51" customFormat="1">
+    <row r="348" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G348" s="52" t="s">
         <v>62</v>
       </c>
       <c r="H348" s="52" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="349" spans="4:8" s="51" customFormat="1">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="349" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E349" s="52"/>
       <c r="F349" s="52"/>
       <c r="G349" s="52" t="s">
@@ -17168,40 +17246,40 @@
         <v>65</v>
       </c>
     </row>
-    <row r="350" spans="4:8" s="51" customFormat="1">
+    <row r="350" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E350" s="52"/>
       <c r="F350" s="52"/>
     </row>
-    <row r="351" spans="4:8" s="51" customFormat="1">
+    <row r="351" spans="4:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E351" s="52"/>
       <c r="F351" s="52"/>
     </row>
-    <row r="352" spans="4:8" s="31" customFormat="1">
+    <row r="352" spans="4:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E352" s="32"/>
       <c r="F352" s="32"/>
     </row>
-    <row r="353" spans="1:6" s="31" customFormat="1">
+    <row r="353" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E353" s="32"/>
       <c r="F353" s="32"/>
     </row>
-    <row r="354" spans="1:6" s="31" customFormat="1">
+    <row r="354" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A354" s="25"/>
       <c r="E354" s="32"/>
       <c r="F354" s="32"/>
     </row>
-    <row r="355" spans="1:6" s="31" customFormat="1">
+    <row r="355" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" s="25" t="s">
         <v>436</v>
       </c>
       <c r="E355" s="32"/>
       <c r="F355" s="32"/>
     </row>
-    <row r="356" spans="1:6" s="34" customFormat="1">
+    <row r="356" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B356" s="34" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="357" spans="1:6" s="31" customFormat="1">
+    <row r="357" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B357" s="31" t="s">
         <v>162</v>
       </c>
@@ -17209,10 +17287,10 @@
         <v>83</v>
       </c>
       <c r="D357" s="31" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" s="31" customFormat="1">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C358" s="33" t="s">
         <v>84</v>
       </c>
@@ -17220,7 +17298,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="359" spans="1:6" s="31" customFormat="1">
+    <row r="359" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C359" s="33" t="s">
         <v>85</v>
       </c>
@@ -17228,7 +17306,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="360" spans="1:6" s="31" customFormat="1">
+    <row r="360" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C360" s="33" t="s">
         <v>86</v>
       </c>
@@ -17236,7 +17314,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="361" spans="1:6" s="31" customFormat="1">
+    <row r="361" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C361" s="33" t="s">
         <v>87</v>
       </c>
@@ -17244,46 +17322,46 @@
         <v>437</v>
       </c>
     </row>
-    <row r="362" spans="1:6" s="31" customFormat="1">
+    <row r="362" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C362" s="33"/>
       <c r="D362" s="31" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="363" spans="1:6" s="31" customFormat="1">
+    <row r="363" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C363" s="33"/>
       <c r="D363" s="31" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="364" spans="1:6" s="31" customFormat="1">
+    <row r="364" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C364" s="33"/>
       <c r="E364" s="31" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="365" spans="1:6" s="31" customFormat="1">
+    <row r="365" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C365" s="33"/>
       <c r="F365" s="31" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="366" spans="1:6" s="31" customFormat="1">
+    <row r="366" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C366" s="33"/>
       <c r="E366" s="31" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="367" spans="1:6" s="31" customFormat="1">
+    <row r="367" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C367" s="33"/>
       <c r="E367" s="31" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="368" spans="1:6" s="31" customFormat="1">
+    <row r="368" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C368" s="33"/>
     </row>
-    <row r="369" spans="3:7" s="31" customFormat="1">
+    <row r="369" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C369" s="33" t="s">
         <v>88</v>
       </c>
@@ -17294,7 +17372,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="370" spans="3:7" s="31" customFormat="1">
+    <row r="370" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C370" s="33" t="s">
         <v>89</v>
       </c>
@@ -17305,7 +17383,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="371" spans="3:7" s="31" customFormat="1">
+    <row r="371" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C371" s="33" t="s">
         <v>91</v>
       </c>
@@ -17313,29 +17391,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="372" spans="3:7" s="31" customFormat="1">
+    <row r="372" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C372" s="33" t="s">
         <v>79</v>
       </c>
       <c r="D372" s="52" t="s">
-        <v>694</v>
+        <v>718</v>
       </c>
       <c r="E372" s="51" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="373" spans="3:7" s="31" customFormat="1">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="373" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C373" s="33" t="s">
         <v>92</v>
       </c>
       <c r="D373" s="52" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="E373" s="31" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="374" spans="3:7" s="31" customFormat="1">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="374" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C374" s="33" t="s">
         <v>443</v>
       </c>
@@ -17349,10 +17427,10 @@
         <v>464</v>
       </c>
     </row>
-    <row r="375" spans="3:7" s="31" customFormat="1">
+    <row r="375" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C375" s="33"/>
     </row>
-    <row r="376" spans="3:7" s="31" customFormat="1">
+    <row r="376" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C376" s="25" t="s">
         <v>25</v>
       </c>
@@ -17366,16 +17444,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="377" spans="3:7" s="31" customFormat="1">
+    <row r="377" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C377" s="33"/>
       <c r="E377" s="32" t="s">
         <v>19</v>
       </c>
       <c r="F377" s="52" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="378" spans="3:7" s="31" customFormat="1">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="378" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C378" s="33"/>
       <c r="E378" s="32" t="s">
         <v>14</v>
@@ -17384,7 +17462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="379" spans="3:7" s="31" customFormat="1">
+    <row r="379" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C379" s="33"/>
       <c r="E379" s="32" t="s">
         <v>16</v>
@@ -17393,7 +17471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="3:7" s="31" customFormat="1">
+    <row r="380" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C380" s="33"/>
       <c r="E380" s="32" t="s">
         <v>17</v>
@@ -17402,7 +17480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="381" spans="3:7" s="31" customFormat="1">
+    <row r="381" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C381" s="33"/>
       <c r="E381" s="32" t="s">
         <v>62</v>
@@ -17411,7 +17489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="382" spans="3:7" s="31" customFormat="1">
+    <row r="382" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C382" s="33"/>
       <c r="E382" s="32" t="s">
         <v>64</v>
@@ -17420,10 +17498,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="383" spans="3:7" s="31" customFormat="1">
+    <row r="383" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C383" s="33"/>
     </row>
-    <row r="384" spans="3:7" s="31" customFormat="1">
+    <row r="384" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C384" s="33"/>
       <c r="D384" s="31" t="s">
         <v>452</v>
@@ -17435,7 +17513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="385" spans="3:6" s="31" customFormat="1">
+    <row r="385" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C385" s="33"/>
       <c r="E385" s="32" t="s">
         <v>19</v>
@@ -17444,7 +17522,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="386" spans="3:6" s="31" customFormat="1">
+    <row r="386" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C386" s="33"/>
       <c r="E386" s="32" t="s">
         <v>14</v>
@@ -17453,7 +17531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="387" spans="3:6" s="31" customFormat="1">
+    <row r="387" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C387" s="33"/>
       <c r="E387" s="32" t="s">
         <v>16</v>
@@ -17462,7 +17540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="3:6" s="31" customFormat="1">
+    <row r="388" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C388" s="33"/>
       <c r="E388" s="32" t="s">
         <v>17</v>
@@ -17471,7 +17549,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="389" spans="3:6" s="31" customFormat="1">
+    <row r="389" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C389" s="33"/>
       <c r="E389" s="32" t="s">
         <v>62</v>
@@ -17480,7 +17558,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="390" spans="3:6" s="31" customFormat="1">
+    <row r="390" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C390" s="33"/>
       <c r="E390" s="32" t="s">
         <v>64</v>
@@ -17489,10 +17567,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="391" spans="3:6" s="31" customFormat="1">
+    <row r="391" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C391" s="33"/>
     </row>
-    <row r="392" spans="3:6" s="31" customFormat="1">
+    <row r="392" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C392" s="33"/>
       <c r="D392" s="31" t="s">
         <v>453</v>
@@ -17504,7 +17582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="393" spans="3:6" s="31" customFormat="1">
+    <row r="393" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C393" s="33"/>
       <c r="E393" s="32" t="s">
         <v>19</v>
@@ -17513,7 +17591,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="394" spans="3:6" s="31" customFormat="1">
+    <row r="394" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C394" s="33"/>
       <c r="E394" s="32" t="s">
         <v>14</v>
@@ -17522,7 +17600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="395" spans="3:6" s="31" customFormat="1">
+    <row r="395" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C395" s="33"/>
       <c r="E395" s="32" t="s">
         <v>16</v>
@@ -17531,7 +17609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="3:6" s="31" customFormat="1">
+    <row r="396" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C396" s="33"/>
       <c r="E396" s="32" t="s">
         <v>17</v>
@@ -17540,7 +17618,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="397" spans="3:6" s="31" customFormat="1">
+    <row r="397" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C397" s="33"/>
       <c r="E397" s="32" t="s">
         <v>62</v>
@@ -17549,7 +17627,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="398" spans="3:6" s="31" customFormat="1">
+    <row r="398" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C398" s="33"/>
       <c r="E398" s="32" t="s">
         <v>64</v>
@@ -17558,12 +17636,12 @@
         <v>460</v>
       </c>
     </row>
-    <row r="399" spans="3:6" s="31" customFormat="1">
+    <row r="399" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C399" s="33"/>
       <c r="E399" s="32"/>
       <c r="F399" s="32"/>
     </row>
-    <row r="400" spans="3:6" s="31" customFormat="1">
+    <row r="400" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C400" s="33"/>
       <c r="D400" s="31" t="s">
         <v>454</v>
@@ -17575,7 +17653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="401" spans="3:6" s="31" customFormat="1">
+    <row r="401" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C401" s="33"/>
       <c r="E401" s="32" t="s">
         <v>19</v>
@@ -17584,7 +17662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="402" spans="3:6" s="31" customFormat="1">
+    <row r="402" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C402" s="33"/>
       <c r="E402" s="32" t="s">
         <v>14</v>
@@ -17593,7 +17671,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="403" spans="3:6" s="31" customFormat="1">
+    <row r="403" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C403" s="33"/>
       <c r="E403" s="32" t="s">
         <v>16</v>
@@ -17602,7 +17680,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="404" spans="3:6" s="31" customFormat="1">
+    <row r="404" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C404" s="33"/>
       <c r="E404" s="32" t="s">
         <v>17</v>
@@ -17611,7 +17689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="405" spans="3:6" s="31" customFormat="1">
+    <row r="405" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C405" s="33"/>
       <c r="E405" s="32" t="s">
         <v>62</v>
@@ -17620,7 +17698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="406" spans="3:6" s="31" customFormat="1">
+    <row r="406" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C406" s="33"/>
       <c r="E406" s="32" t="s">
         <v>64</v>
@@ -17629,12 +17707,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="407" spans="3:6" s="31" customFormat="1">
+    <row r="407" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C407" s="33"/>
       <c r="E407" s="32"/>
       <c r="F407" s="32"/>
     </row>
-    <row r="408" spans="3:6" s="31" customFormat="1">
+    <row r="408" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C408" s="33"/>
       <c r="D408" s="31" t="s">
         <v>455</v>
@@ -17646,7 +17724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" spans="3:6" s="31" customFormat="1">
+    <row r="409" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C409" s="33"/>
       <c r="E409" s="32" t="s">
         <v>19</v>
@@ -17655,7 +17733,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="410" spans="3:6" s="31" customFormat="1">
+    <row r="410" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C410" s="33"/>
       <c r="E410" s="32" t="s">
         <v>14</v>
@@ -17664,7 +17742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="411" spans="3:6" s="31" customFormat="1">
+    <row r="411" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C411" s="33"/>
       <c r="E411" s="32" t="s">
         <v>16</v>
@@ -17673,7 +17751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="3:6" s="31" customFormat="1">
+    <row r="412" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C412" s="33"/>
       <c r="E412" s="32" t="s">
         <v>17</v>
@@ -17682,7 +17760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="413" spans="3:6" s="31" customFormat="1">
+    <row r="413" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C413" s="33"/>
       <c r="E413" s="32" t="s">
         <v>62</v>
@@ -17691,7 +17769,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="414" spans="3:6" s="31" customFormat="1">
+    <row r="414" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C414" s="33"/>
       <c r="E414" s="32" t="s">
         <v>64</v>
@@ -17700,12 +17778,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="415" spans="3:6" s="31" customFormat="1">
+    <row r="415" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C415" s="33"/>
       <c r="E415" s="32"/>
       <c r="F415" s="32"/>
     </row>
-    <row r="416" spans="3:6" s="31" customFormat="1">
+    <row r="416" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C416" s="33"/>
       <c r="D416" s="31" t="s">
         <v>236</v>
@@ -17717,19 +17795,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="417" spans="2:8" s="31" customFormat="1">
+    <row r="417" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C417" s="33"/>
       <c r="E417" s="32" t="s">
         <v>19</v>
       </c>
       <c r="F417" s="52" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="H417" s="31" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="418" spans="2:8" s="31" customFormat="1">
+    <row r="418" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C418" s="33"/>
       <c r="E418" s="32" t="s">
         <v>14</v>
@@ -17738,7 +17816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="419" spans="2:8" s="31" customFormat="1">
+    <row r="419" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C419" s="33"/>
       <c r="E419" s="32" t="s">
         <v>16</v>
@@ -17747,7 +17825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="2:8" s="31" customFormat="1">
+    <row r="420" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C420" s="33"/>
       <c r="E420" s="32" t="s">
         <v>17</v>
@@ -17756,7 +17834,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="421" spans="2:8" s="31" customFormat="1">
+    <row r="421" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C421" s="33"/>
       <c r="E421" s="32" t="s">
         <v>62</v>
@@ -17765,7 +17843,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="422" spans="2:8" s="31" customFormat="1">
+    <row r="422" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C422" s="33"/>
       <c r="E422" s="32" t="s">
         <v>64</v>
@@ -17774,32 +17852,32 @@
         <v>65</v>
       </c>
     </row>
-    <row r="423" spans="2:8" s="31" customFormat="1">
+    <row r="423" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C423" s="33"/>
       <c r="E423" s="32"/>
       <c r="F423" s="32"/>
     </row>
-    <row r="424" spans="2:8" s="31" customFormat="1">
+    <row r="424" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C424" s="33"/>
       <c r="E424" s="32"/>
       <c r="F424" s="32"/>
     </row>
-    <row r="425" spans="2:8" s="31" customFormat="1">
+    <row r="425" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C425" s="33"/>
       <c r="E425" s="32"/>
       <c r="F425" s="32"/>
     </row>
-    <row r="426" spans="2:8" s="31" customFormat="1">
+    <row r="426" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C426" s="33"/>
       <c r="E426" s="32"/>
       <c r="F426" s="32"/>
     </row>
-    <row r="427" spans="2:8" s="34" customFormat="1">
+    <row r="427" spans="2:8" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B427" s="34" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="428" spans="2:8" s="31" customFormat="1">
+    <row r="428" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B428" s="31" t="s">
         <v>158</v>
       </c>
@@ -17807,10 +17885,10 @@
         <v>83</v>
       </c>
       <c r="D428" s="31" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="429" spans="2:8" s="31" customFormat="1">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="429" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C429" s="33" t="s">
         <v>84</v>
       </c>
@@ -17818,7 +17896,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="430" spans="2:8" s="31" customFormat="1">
+    <row r="430" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C430" s="33" t="s">
         <v>85</v>
       </c>
@@ -17826,7 +17904,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="431" spans="2:8" s="31" customFormat="1">
+    <row r="431" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C431" s="33" t="s">
         <v>86</v>
       </c>
@@ -17834,7 +17912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="2:8" s="31" customFormat="1">
+    <row r="432" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C432" s="33" t="s">
         <v>87</v>
       </c>
@@ -17842,25 +17920,25 @@
         <v>486</v>
       </c>
     </row>
-    <row r="433" spans="3:11" s="51" customFormat="1">
+    <row r="433" spans="3:11" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C433" s="53"/>
       <c r="D433" s="51" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="434" spans="3:11" s="51" customFormat="1">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="434" spans="3:11" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C434" s="53"/>
       <c r="D434" s="51" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="435" spans="3:11" s="51" customFormat="1">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="435" spans="3:11" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C435" s="53"/>
     </row>
-    <row r="436" spans="3:11" s="51" customFormat="1">
+    <row r="436" spans="3:11" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C436" s="53"/>
       <c r="D436" s="34" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="E436" s="34"/>
       <c r="F436" s="34"/>
@@ -17870,11 +17948,11 @@
       <c r="J436" s="34"/>
       <c r="K436" s="34"/>
     </row>
-    <row r="437" spans="3:11" s="51" customFormat="1">
+    <row r="437" spans="3:11" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C437" s="53"/>
       <c r="D437" s="34"/>
       <c r="E437" s="34" t="s">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="F437" s="34"/>
       <c r="G437" s="34"/>
@@ -17883,11 +17961,11 @@
       <c r="J437" s="34"/>
       <c r="K437" s="34"/>
     </row>
-    <row r="438" spans="3:11" s="51" customFormat="1">
+    <row r="438" spans="3:11" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C438" s="53"/>
       <c r="D438" s="34"/>
       <c r="E438" s="34" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
       <c r="F438" s="34"/>
       <c r="G438" s="34"/>
@@ -17896,11 +17974,11 @@
       <c r="J438" s="34"/>
       <c r="K438" s="34"/>
     </row>
-    <row r="439" spans="3:11" s="51" customFormat="1">
+    <row r="439" spans="3:11" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C439" s="53"/>
       <c r="D439" s="34"/>
       <c r="E439" s="34" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="F439" s="34"/>
       <c r="G439" s="34"/>
@@ -17909,43 +17987,43 @@
       <c r="J439" s="34"/>
       <c r="K439" s="34"/>
     </row>
-    <row r="440" spans="3:11" s="51" customFormat="1">
+    <row r="440" spans="3:11" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C440" s="53"/>
     </row>
-    <row r="441" spans="3:11" s="31" customFormat="1">
+    <row r="441" spans="3:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C441" s="33"/>
       <c r="D441" s="32" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="442" spans="3:11" s="31" customFormat="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="442" spans="3:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C442" s="33"/>
       <c r="D442" s="32" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="443" spans="3:11" s="31" customFormat="1">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="443" spans="3:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C443" s="33"/>
       <c r="D443" s="32"/>
       <c r="E443" s="31" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="444" spans="3:11" s="31" customFormat="1">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="444" spans="3:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C444" s="33"/>
       <c r="D444" s="32"/>
       <c r="E444" s="31" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I444" s="51" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="445" spans="3:11" s="31" customFormat="1">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="445" spans="3:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C445" s="33"/>
       <c r="E445" s="32"/>
     </row>
-    <row r="446" spans="3:11" s="31" customFormat="1">
+    <row r="446" spans="3:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C446" s="33" t="s">
         <v>88</v>
       </c>
@@ -17956,7 +18034,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="447" spans="3:11" s="31" customFormat="1">
+    <row r="447" spans="3:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C447" s="33" t="s">
         <v>89</v>
       </c>
@@ -17967,7 +18045,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="448" spans="3:11" s="31" customFormat="1">
+    <row r="448" spans="3:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C448" s="33" t="s">
         <v>91</v>
       </c>
@@ -17975,23 +18053,23 @@
         <v>207</v>
       </c>
     </row>
-    <row r="449" spans="3:13" s="31" customFormat="1">
+    <row r="449" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C449" s="33" t="s">
         <v>79</v>
       </c>
       <c r="D449" s="51" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="450" spans="3:13" s="31" customFormat="1">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="450" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C450" s="33" t="s">
         <v>92</v>
       </c>
       <c r="D450" s="31" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="451" spans="3:13" s="31" customFormat="1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="451" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C451" s="33" t="s">
         <v>446</v>
       </c>
@@ -17999,7 +18077,7 @@
         <v>447</v>
       </c>
       <c r="E451" s="52" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="F451" s="52"/>
       <c r="G451" s="52"/>
@@ -18010,15 +18088,15 @@
       <c r="L451" s="52"/>
       <c r="M451" s="52"/>
     </row>
-    <row r="452" spans="3:13" s="31" customFormat="1">
+    <row r="452" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C452" s="33" t="s">
         <v>448</v>
       </c>
       <c r="D452" s="31" t="s">
-        <v>489</v>
+        <v>722</v>
       </c>
       <c r="E452" s="52" t="s">
-        <v>699</v>
+        <v>723</v>
       </c>
       <c r="F452" s="52"/>
       <c r="G452" s="52"/>
@@ -18029,26 +18107,26 @@
       <c r="L452" s="52"/>
       <c r="M452" s="52"/>
     </row>
-    <row r="453" spans="3:13" s="31" customFormat="1">
+    <row r="453" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C453" s="33" t="s">
         <v>277</v>
       </c>
       <c r="D453" s="31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E453" s="31" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="454" spans="3:13" s="31" customFormat="1">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="454" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C454" s="33"/>
     </row>
-    <row r="455" spans="3:13" s="31" customFormat="1">
+    <row r="455" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C455" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D455" s="31" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E455" s="31" t="s">
         <v>466</v>
@@ -18060,7 +18138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="456" spans="3:13" s="31" customFormat="1">
+    <row r="456" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C456" s="33"/>
       <c r="F456" s="32" t="s">
         <v>19</v>
@@ -18069,7 +18147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="457" spans="3:13" s="31" customFormat="1">
+    <row r="457" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C457" s="33"/>
       <c r="F457" s="32" t="s">
         <v>14</v>
@@ -18078,7 +18156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="458" spans="3:13" s="31" customFormat="1">
+    <row r="458" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C458" s="33"/>
       <c r="F458" s="32" t="s">
         <v>16</v>
@@ -18087,7 +18165,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="459" spans="3:13" s="31" customFormat="1">
+    <row r="459" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C459" s="33"/>
       <c r="F459" s="32" t="s">
         <v>17</v>
@@ -18096,7 +18174,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="460" spans="3:13" s="31" customFormat="1">
+    <row r="460" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C460" s="33"/>
       <c r="F460" s="32" t="s">
         <v>62</v>
@@ -18105,7 +18183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="461" spans="3:13" s="31" customFormat="1">
+    <row r="461" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C461" s="33"/>
       <c r="F461" s="32" t="s">
         <v>64</v>
@@ -18114,13 +18192,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="462" spans="3:13" s="31" customFormat="1">
+    <row r="462" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C462" s="33"/>
     </row>
-    <row r="463" spans="3:13" s="31" customFormat="1">
+    <row r="463" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C463" s="33"/>
       <c r="D463" s="51" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E463" s="31" t="s">
         <v>465</v>
@@ -18132,7 +18210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="464" spans="3:13" s="31" customFormat="1">
+    <row r="464" spans="3:13" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C464" s="33"/>
       <c r="F464" s="32" t="s">
         <v>19</v>
@@ -18141,7 +18219,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="465" spans="3:7" s="31" customFormat="1">
+    <row r="465" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C465" s="33"/>
       <c r="F465" s="32" t="s">
         <v>14</v>
@@ -18150,7 +18228,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="466" spans="3:7" s="31" customFormat="1">
+    <row r="466" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C466" s="33"/>
       <c r="F466" s="32" t="s">
         <v>16</v>
@@ -18159,7 +18237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="3:7" s="31" customFormat="1">
+    <row r="467" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C467" s="33"/>
       <c r="F467" s="32" t="s">
         <v>17</v>
@@ -18168,7 +18246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="468" spans="3:7" s="31" customFormat="1">
+    <row r="468" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C468" s="33"/>
       <c r="F468" s="32" t="s">
         <v>62</v>
@@ -18177,7 +18255,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="469" spans="3:7" s="31" customFormat="1">
+    <row r="469" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C469" s="33"/>
       <c r="F469" s="32" t="s">
         <v>64</v>
@@ -18186,13 +18264,13 @@
         <v>65</v>
       </c>
     </row>
-    <row r="470" spans="3:7" s="31" customFormat="1">
+    <row r="470" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C470" s="33"/>
     </row>
-    <row r="471" spans="3:7" s="31" customFormat="1">
+    <row r="471" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C471" s="33"/>
       <c r="D471" s="51" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E471" s="31" t="s">
         <v>236</v>
@@ -18204,7 +18282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="472" spans="3:7" s="31" customFormat="1">
+    <row r="472" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C472" s="33"/>
       <c r="F472" s="32" t="s">
         <v>19</v>
@@ -18213,7 +18291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="473" spans="3:7" s="31" customFormat="1">
+    <row r="473" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C473" s="33"/>
       <c r="F473" s="32" t="s">
         <v>14</v>
@@ -18222,7 +18300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="474" spans="3:7" s="31" customFormat="1">
+    <row r="474" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C474" s="33"/>
       <c r="F474" s="32" t="s">
         <v>16</v>
@@ -18231,7 +18309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="3:7" s="31" customFormat="1">
+    <row r="475" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C475" s="33"/>
       <c r="F475" s="32" t="s">
         <v>17</v>
@@ -18240,7 +18318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="476" spans="3:7" s="31" customFormat="1">
+    <row r="476" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C476" s="33"/>
       <c r="F476" s="32" t="s">
         <v>62</v>
@@ -18249,7 +18327,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="477" spans="3:7" s="31" customFormat="1">
+    <row r="477" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C477" s="33"/>
       <c r="F477" s="32" t="s">
         <v>64</v>
@@ -18258,32 +18336,32 @@
         <v>65</v>
       </c>
     </row>
-    <row r="478" spans="3:7" s="31" customFormat="1">
+    <row r="478" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C478" s="33"/>
       <c r="F478" s="32"/>
       <c r="G478" s="32"/>
     </row>
-    <row r="479" spans="3:7" s="51" customFormat="1">
+    <row r="479" spans="3:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C479" s="53"/>
       <c r="F479" s="52"/>
       <c r="G479" s="52"/>
     </row>
-    <row r="480" spans="3:7" s="31" customFormat="1">
+    <row r="480" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C480" s="33"/>
       <c r="D480" s="51" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E480" s="31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F480" s="32" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="481" spans="3:8" s="31" customFormat="1">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="481" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C481" s="33"/>
       <c r="F481" s="31" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G481" s="32" t="s">
         <v>9</v>
@@ -18292,7 +18370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="482" spans="3:8" s="31" customFormat="1">
+    <row r="482" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C482" s="33"/>
       <c r="G482" s="32" t="s">
         <v>19</v>
@@ -18301,7 +18379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="3:8" s="31" customFormat="1">
+    <row r="483" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C483" s="33"/>
       <c r="G483" s="32" t="s">
         <v>14</v>
@@ -18310,7 +18388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="484" spans="3:8" s="31" customFormat="1">
+    <row r="484" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C484" s="33"/>
       <c r="G484" s="32" t="s">
         <v>16</v>
@@ -18319,7 +18397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="3:8" s="31" customFormat="1">
+    <row r="485" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C485" s="33"/>
       <c r="G485" s="32" t="s">
         <v>17</v>
@@ -18328,16 +18406,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="486" spans="3:8" s="31" customFormat="1">
+    <row r="486" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C486" s="33"/>
       <c r="G486" s="32" t="s">
         <v>62</v>
       </c>
       <c r="H486" s="32" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="487" spans="3:8" s="31" customFormat="1">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="487" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C487" s="33"/>
       <c r="G487" s="32" t="s">
         <v>64</v>
@@ -18346,32 +18424,32 @@
         <v>470</v>
       </c>
     </row>
-    <row r="488" spans="3:8" s="51" customFormat="1">
+    <row r="488" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C488" s="53"/>
       <c r="F488" s="52"/>
       <c r="G488" s="52"/>
     </row>
-    <row r="489" spans="3:8" s="51" customFormat="1">
+    <row r="489" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C489" s="53"/>
       <c r="F489" s="52"/>
       <c r="G489" s="52"/>
     </row>
-    <row r="490" spans="3:8" s="31" customFormat="1">
+    <row r="490" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C490" s="33"/>
       <c r="D490" s="51" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E490" s="31" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F490" s="32" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="491" spans="3:8" s="31" customFormat="1">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="491" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C491" s="33"/>
       <c r="F491" s="51" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G491" s="32" t="s">
         <v>9</v>
@@ -18380,7 +18458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="3:8" s="31" customFormat="1">
+    <row r="492" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C492" s="33"/>
       <c r="G492" s="32" t="s">
         <v>19</v>
@@ -18389,7 +18467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="3:8" s="31" customFormat="1">
+    <row r="493" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C493" s="33"/>
       <c r="G493" s="32" t="s">
         <v>14</v>
@@ -18398,7 +18476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="494" spans="3:8" s="31" customFormat="1">
+    <row r="494" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C494" s="33"/>
       <c r="G494" s="32" t="s">
         <v>16</v>
@@ -18407,7 +18485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="3:8" s="31" customFormat="1">
+    <row r="495" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C495" s="33"/>
       <c r="G495" s="32" t="s">
         <v>17</v>
@@ -18416,16 +18494,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="496" spans="3:8" s="31" customFormat="1">
+    <row r="496" spans="3:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C496" s="33"/>
       <c r="G496" s="32" t="s">
         <v>62</v>
       </c>
       <c r="H496" s="32" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="497" spans="1:8" s="31" customFormat="1">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C497" s="33"/>
       <c r="G497" s="32" t="s">
         <v>64</v>
@@ -18434,21 +18512,21 @@
         <v>65</v>
       </c>
     </row>
-    <row r="498" spans="1:8" s="31" customFormat="1">
+    <row r="498" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C498" s="33"/>
     </row>
-    <row r="499" spans="1:8" s="31" customFormat="1">
+    <row r="499" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A499" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="500" spans="1:8" s="34" customFormat="1">
+    <row r="500" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A500" s="36"/>
       <c r="B500" s="34" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="501" spans="1:8" s="31" customFormat="1">
+    <row r="501" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C501" s="33" t="s">
         <v>61</v>
       </c>
@@ -18456,7 +18534,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="502" spans="1:8" s="31" customFormat="1">
+    <row r="502" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C502" s="25" t="s">
         <v>32</v>
       </c>
@@ -18464,48 +18542,48 @@
         <v>228</v>
       </c>
     </row>
-    <row r="503" spans="1:8" s="31" customFormat="1">
+    <row r="503" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C503" s="25"/>
     </row>
-    <row r="504" spans="1:8" s="31" customFormat="1">
+    <row r="504" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C504" s="25"/>
     </row>
-    <row r="505" spans="1:8" s="31" customFormat="1">
+    <row r="505" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C505" s="25"/>
     </row>
-    <row r="506" spans="1:8" s="31" customFormat="1">
+    <row r="506" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C506" s="25"/>
     </row>
-    <row r="507" spans="1:8" s="31" customFormat="1">
+    <row r="507" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C507" s="25"/>
     </row>
-    <row r="508" spans="1:8" s="31" customFormat="1">
+    <row r="508" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C508" s="25"/>
     </row>
-    <row r="509" spans="1:8" s="31" customFormat="1">
+    <row r="509" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C509" s="25"/>
     </row>
-    <row r="510" spans="1:8" s="31" customFormat="1">
+    <row r="510" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C510" s="25"/>
     </row>
-    <row r="511" spans="1:8" s="31" customFormat="1"/>
-    <row r="512" spans="1:8" s="31" customFormat="1">
+    <row r="511" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="512" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D512" s="31" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="513" spans="3:6" s="31" customFormat="1">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="513" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D513" s="31" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="514" spans="3:6" s="31" customFormat="1">
+    <row r="514" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D514" s="31" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="515" spans="3:6" s="31" customFormat="1"/>
-    <row r="516" spans="3:6" s="31" customFormat="1">
+    <row r="515" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="516" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C516" s="25" t="s">
         <v>9</v>
       </c>
@@ -18513,7 +18591,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="517" spans="3:6" s="31" customFormat="1">
+    <row r="517" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C517" s="25" t="s">
         <v>233</v>
       </c>
@@ -18524,7 +18602,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="518" spans="3:6" s="31" customFormat="1">
+    <row r="518" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C518" s="25" t="s">
         <v>275</v>
       </c>
@@ -18532,10 +18610,10 @@
         <v>269</v>
       </c>
       <c r="E518" s="31" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="519" spans="3:6" s="31" customFormat="1">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="519" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C519" s="25" t="s">
         <v>276</v>
       </c>
@@ -18546,26 +18624,26 @@
         <v>296</v>
       </c>
     </row>
-    <row r="520" spans="3:6" s="51" customFormat="1">
+    <row r="520" spans="3:6" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C520" s="25" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="D520" s="51" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="E520" s="51" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="521" spans="3:6" s="31" customFormat="1">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="521" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C521" s="25"/>
     </row>
-    <row r="522" spans="3:6" s="31" customFormat="1">
+    <row r="522" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C522" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="523" spans="3:6" s="31" customFormat="1">
+    <row r="523" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C523" s="25"/>
       <c r="D523" s="31" t="s">
         <v>236</v>
@@ -18577,7 +18655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="524" spans="3:6" s="31" customFormat="1">
+    <row r="524" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C524" s="25"/>
       <c r="E524" s="32" t="s">
         <v>19</v>
@@ -18586,7 +18664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="525" spans="3:6" s="31" customFormat="1">
+    <row r="525" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C525" s="25"/>
       <c r="E525" s="32" t="s">
         <v>14</v>
@@ -18595,7 +18673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="526" spans="3:6" s="31" customFormat="1">
+    <row r="526" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C526" s="25"/>
       <c r="E526" s="32" t="s">
         <v>16</v>
@@ -18604,7 +18682,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="527" spans="3:6" s="31" customFormat="1">
+    <row r="527" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C527" s="25"/>
       <c r="E527" s="32" t="s">
         <v>17</v>
@@ -18613,7 +18691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="528" spans="3:6" s="31" customFormat="1">
+    <row r="528" spans="3:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C528" s="25"/>
       <c r="E528" s="32" t="s">
         <v>62</v>
@@ -18622,7 +18700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="529" spans="3:9" s="31" customFormat="1">
+    <row r="529" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C529" s="25"/>
       <c r="E529" s="32" t="s">
         <v>64</v>
@@ -18631,21 +18709,21 @@
         <v>65</v>
       </c>
     </row>
-    <row r="530" spans="3:9" s="51" customFormat="1">
+    <row r="530" spans="3:9" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C530" s="25"/>
       <c r="E530" s="52"/>
       <c r="F530" s="52"/>
     </row>
-    <row r="531" spans="3:9" s="31" customFormat="1">
+    <row r="531" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C531" s="25"/>
       <c r="D531" s="31" t="s">
         <v>229</v>
       </c>
       <c r="E531" s="32" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="532" spans="3:9" s="31" customFormat="1">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="532" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C532" s="25"/>
       <c r="E532" s="31" t="s">
         <v>24</v>
@@ -18653,7 +18731,7 @@
       <c r="F532" s="32"/>
       <c r="G532" s="32"/>
     </row>
-    <row r="533" spans="3:9" s="31" customFormat="1">
+    <row r="533" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C533" s="25"/>
       <c r="F533" s="32" t="s">
         <v>9</v>
@@ -18662,7 +18740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="534" spans="3:9" s="31" customFormat="1">
+    <row r="534" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C534" s="25"/>
       <c r="F534" s="32" t="s">
         <v>19</v>
@@ -18671,7 +18749,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="535" spans="3:9" s="31" customFormat="1">
+    <row r="535" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C535" s="25"/>
       <c r="F535" s="31" t="s">
         <v>14</v>
@@ -18680,7 +18758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="536" spans="3:9" s="31" customFormat="1">
+    <row r="536" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C536" s="25"/>
       <c r="F536" s="31" t="s">
         <v>16</v>
@@ -18689,7 +18767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="3:9" s="31" customFormat="1">
+    <row r="537" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C537" s="25"/>
       <c r="F537" s="31" t="s">
         <v>17</v>
@@ -18698,7 +18776,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="538" spans="3:9" s="31" customFormat="1">
+    <row r="538" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C538" s="25"/>
       <c r="F538" s="32" t="s">
         <v>259</v>
@@ -18707,7 +18785,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="539" spans="3:9" s="31" customFormat="1">
+    <row r="539" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C539" s="25"/>
       <c r="F539" s="32" t="s">
         <v>64</v>
@@ -18716,23 +18794,23 @@
         <v>247</v>
       </c>
     </row>
-    <row r="540" spans="3:9" s="31" customFormat="1">
+    <row r="540" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C540" s="25"/>
     </row>
-    <row r="541" spans="3:9" s="31" customFormat="1">
+    <row r="541" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C541" s="25"/>
       <c r="D541" s="31" t="s">
         <v>238</v>
       </c>
       <c r="E541" s="51" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="F541" s="32"/>
     </row>
-    <row r="542" spans="3:9" s="31" customFormat="1">
+    <row r="542" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C542" s="25"/>
       <c r="E542" s="31" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F542" s="32" t="s">
         <v>9</v>
@@ -18741,7 +18819,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="543" spans="3:9" s="31" customFormat="1">
+    <row r="543" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C543" s="25"/>
       <c r="F543" s="32" t="s">
         <v>19</v>
@@ -18750,10 +18828,10 @@
         <v>241</v>
       </c>
       <c r="I543" s="31" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="544" spans="3:9" s="31" customFormat="1">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="544" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C544" s="25"/>
       <c r="F544" s="32" t="s">
         <v>14</v>
@@ -18762,7 +18840,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="545" spans="3:9" s="31" customFormat="1">
+    <row r="545" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C545" s="25"/>
       <c r="F545" s="32" t="s">
         <v>16</v>
@@ -18771,7 +18849,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="546" spans="3:9" s="31" customFormat="1">
+    <row r="546" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C546" s="25"/>
       <c r="F546" s="32" t="s">
         <v>17</v>
@@ -18780,7 +18858,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="547" spans="3:9" s="31" customFormat="1">
+    <row r="547" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C547" s="25"/>
       <c r="F547" s="32" t="s">
         <v>62</v>
@@ -18789,7 +18867,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="548" spans="3:9" s="31" customFormat="1">
+    <row r="548" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C548" s="25"/>
       <c r="F548" s="32" t="s">
         <v>64</v>
@@ -18798,19 +18876,19 @@
         <v>245</v>
       </c>
     </row>
-    <row r="549" spans="3:9" s="31" customFormat="1">
+    <row r="549" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C549" s="25"/>
       <c r="D549" s="31" t="s">
         <v>239</v>
       </c>
       <c r="E549" s="51" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="550" spans="3:9" s="31" customFormat="1">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="550" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C550" s="25"/>
       <c r="E550" s="51" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F550" s="32" t="s">
         <v>9</v>
@@ -18819,7 +18897,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="551" spans="3:9" s="31" customFormat="1">
+    <row r="551" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C551" s="25"/>
       <c r="F551" s="32" t="s">
         <v>19</v>
@@ -18828,10 +18906,10 @@
         <v>241</v>
       </c>
       <c r="I551" s="51" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="552" spans="3:9" s="31" customFormat="1">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="552" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C552" s="25"/>
       <c r="F552" s="32" t="s">
         <v>14</v>
@@ -18840,7 +18918,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="553" spans="3:9" s="31" customFormat="1">
+    <row r="553" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C553" s="25"/>
       <c r="F553" s="32" t="s">
         <v>16</v>
@@ -18849,7 +18927,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="554" spans="3:9" s="31" customFormat="1">
+    <row r="554" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C554" s="25"/>
       <c r="F554" s="32" t="s">
         <v>17</v>
@@ -18858,7 +18936,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="555" spans="3:9" s="31" customFormat="1">
+    <row r="555" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C555" s="25"/>
       <c r="F555" s="32" t="s">
         <v>62</v>
@@ -18867,7 +18945,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="556" spans="3:9" s="31" customFormat="1">
+    <row r="556" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C556" s="25"/>
       <c r="F556" s="32" t="s">
         <v>64</v>
@@ -18876,22 +18954,22 @@
         <v>246</v>
       </c>
     </row>
-    <row r="557" spans="3:9" s="31" customFormat="1">
+    <row r="557" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C557" s="25"/>
     </row>
-    <row r="558" spans="3:9" s="31" customFormat="1">
+    <row r="558" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C558" s="25"/>
       <c r="D558" s="31" t="s">
         <v>248</v>
       </c>
       <c r="E558" s="32" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="559" spans="3:9" s="31" customFormat="1">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="559" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C559" s="25"/>
       <c r="E559" s="31" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F559" s="32" t="s">
         <v>9</v>
@@ -18900,19 +18978,19 @@
         <v>249</v>
       </c>
     </row>
-    <row r="560" spans="3:9" s="31" customFormat="1">
+    <row r="560" spans="3:9" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C560" s="25"/>
       <c r="F560" s="32" t="s">
         <v>19</v>
       </c>
       <c r="G560" s="51" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="I560" s="51" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="561" spans="3:7" s="31" customFormat="1">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="561" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C561" s="25"/>
       <c r="F561" s="32" t="s">
         <v>14</v>
@@ -18921,7 +18999,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="562" spans="3:7" s="31" customFormat="1">
+    <row r="562" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F562" s="32" t="s">
         <v>16</v>
       </c>
@@ -18929,7 +19007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="563" spans="3:7" s="31" customFormat="1">
+    <row r="563" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C563" s="25"/>
       <c r="F563" s="32" t="s">
         <v>17</v>
@@ -18938,7 +19016,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="564" spans="3:7" s="31" customFormat="1">
+    <row r="564" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C564" s="25"/>
       <c r="F564" s="32" t="s">
         <v>62</v>
@@ -18947,7 +19025,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="565" spans="3:7" s="31" customFormat="1">
+    <row r="565" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C565" s="25"/>
       <c r="F565" s="32" t="s">
         <v>64</v>
@@ -18956,10 +19034,10 @@
         <v>253</v>
       </c>
     </row>
-    <row r="566" spans="3:7" s="31" customFormat="1">
+    <row r="566" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C566" s="25"/>
     </row>
-    <row r="567" spans="3:7" s="31" customFormat="1">
+    <row r="567" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C567" s="25" t="s">
         <v>11</v>
       </c>
@@ -18967,142 +19045,142 @@
         <v>264</v>
       </c>
     </row>
-    <row r="568" spans="3:7" s="31" customFormat="1">
+    <row r="568" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C568" s="25"/>
       <c r="D568" s="31" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="569" spans="3:7" s="31" customFormat="1">
+    <row r="569" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C569" s="25"/>
       <c r="D569" s="31" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="570" spans="3:7" s="31" customFormat="1">
+    <row r="570" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C570" s="25"/>
       <c r="D570" s="31" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="571" spans="3:7" s="31" customFormat="1">
+    <row r="571" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C571" s="31" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="572" spans="3:7" s="31" customFormat="1">
+    <row r="572" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C572" s="25"/>
       <c r="D572" s="31" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="573" spans="3:7" s="31" customFormat="1">
+    <row r="573" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C573" s="25"/>
       <c r="D573" s="31" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="574" spans="3:7" s="31" customFormat="1">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="574" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C574" s="25"/>
       <c r="D574" s="31" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="575" spans="3:7" s="31" customFormat="1">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="575" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C575" s="25"/>
       <c r="D575" s="31" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="576" spans="3:7" s="31" customFormat="1">
+    <row r="576" spans="3:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C576" s="25"/>
       <c r="D576" s="51" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="577" spans="1:5" s="31" customFormat="1">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C577" s="25"/>
       <c r="D577" s="31" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="578" spans="1:5" s="31" customFormat="1">
+    <row r="578" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C578" s="25"/>
       <c r="D578" s="31" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="579" spans="1:5" s="31" customFormat="1">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C579" s="25"/>
       <c r="D579" s="31" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="580" spans="1:5" s="31" customFormat="1">
+    <row r="580" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C580" s="25"/>
       <c r="E580" s="31" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="581" spans="1:5" s="31" customFormat="1">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C581" s="25"/>
       <c r="E581" s="31" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="582" spans="1:5" s="31" customFormat="1">
+    <row r="582" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C582" s="25"/>
       <c r="E582" s="31" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="583" spans="1:5" s="31" customFormat="1">
+    <row r="583" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C583" s="25"/>
     </row>
-    <row r="584" spans="1:5" s="31" customFormat="1">
+    <row r="584" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C584" s="25"/>
     </row>
-    <row r="585" spans="1:5" s="31" customFormat="1">
+    <row r="585" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C585" s="31" t="s">
         <v>254</v>
       </c>
       <c r="E585" s="31" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="586" spans="1:5" s="31" customFormat="1">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C586" s="25"/>
       <c r="E586" s="31" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="587" spans="1:5" s="31" customFormat="1">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C587" s="25"/>
       <c r="E587" s="31" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="588" spans="1:5" s="31" customFormat="1">
+    <row r="588" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C588" s="25"/>
     </row>
-    <row r="589" spans="1:5" s="31" customFormat="1">
+    <row r="589" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C589" s="25"/>
     </row>
-    <row r="590" spans="1:5" s="34" customFormat="1">
+    <row r="590" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A590" s="36"/>
       <c r="B590" s="34" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="591" spans="1:5" s="31" customFormat="1">
+    <row r="591" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C591" s="33" t="s">
         <v>61</v>
       </c>
       <c r="D591" s="32" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="592" spans="1:5" s="31" customFormat="1">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C592" s="25" t="s">
         <v>32</v>
       </c>
@@ -19110,49 +19188,49 @@
         <v>250</v>
       </c>
     </row>
-    <row r="593" spans="3:10" s="31" customFormat="1">
+    <row r="593" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C593" s="25"/>
     </row>
-    <row r="594" spans="3:10" s="31" customFormat="1">
+    <row r="594" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C594" s="25"/>
     </row>
-    <row r="595" spans="3:10" s="31" customFormat="1">
+    <row r="595" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C595" s="25"/>
     </row>
-    <row r="596" spans="3:10" s="31" customFormat="1">
+    <row r="596" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C596" s="25"/>
     </row>
-    <row r="597" spans="3:10" s="31" customFormat="1">
+    <row r="597" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C597" s="25"/>
     </row>
-    <row r="598" spans="3:10" s="31" customFormat="1">
+    <row r="598" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C598" s="25"/>
     </row>
-    <row r="599" spans="3:10" s="31" customFormat="1">
+    <row r="599" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C599" s="25"/>
     </row>
-    <row r="600" spans="3:10" s="31" customFormat="1">
+    <row r="600" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C600" s="25"/>
     </row>
-    <row r="601" spans="3:10" s="31" customFormat="1">
+    <row r="601" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C601" s="25"/>
     </row>
-    <row r="602" spans="3:10" s="31" customFormat="1">
+    <row r="602" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C602" s="25"/>
     </row>
-    <row r="603" spans="3:10" s="31" customFormat="1">
+    <row r="603" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C603" s="25"/>
     </row>
-    <row r="604" spans="3:10" s="31" customFormat="1">
+    <row r="604" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C604" s="25"/>
     </row>
-    <row r="605" spans="3:10" s="31" customFormat="1">
+    <row r="605" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C605" s="25"/>
     </row>
-    <row r="606" spans="3:10" s="31" customFormat="1">
+    <row r="606" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C606" s="25"/>
     </row>
-    <row r="607" spans="3:10" s="31" customFormat="1">
+    <row r="607" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C607" s="25"/>
       <c r="D607" s="31" t="s">
         <v>271</v>
@@ -19164,25 +19242,25 @@
         <v>273</v>
       </c>
     </row>
-    <row r="608" spans="3:10" s="31" customFormat="1">
+    <row r="608" spans="3:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C608" s="25"/>
     </row>
-    <row r="609" spans="3:14" s="31" customFormat="1">
+    <row r="609" spans="3:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C609" s="25"/>
       <c r="D609" s="31" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="610" spans="3:14" s="31" customFormat="1">
+    <row r="610" spans="3:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C610" s="25"/>
       <c r="D610" s="31" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="611" spans="3:14">
+    <row r="611" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C611" s="8"/>
       <c r="D611" s="2" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="E611" s="8"/>
       <c r="F611" s="8"/>
@@ -19195,7 +19273,7 @@
       <c r="M611" s="8"/>
       <c r="N611" s="8"/>
     </row>
-    <row r="612" spans="3:14">
+    <row r="612" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C612" s="8"/>
       <c r="D612" s="8" t="s">
         <v>301</v>
@@ -19211,15 +19289,15 @@
       <c r="M612" s="8"/>
       <c r="N612" s="8"/>
     </row>
-    <row r="614" spans="3:14">
+    <row r="614" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C614" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D614" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="615" spans="3:14">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="615" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C615" s="25" t="s">
         <v>233</v>
       </c>
@@ -19230,7 +19308,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="616" spans="3:14">
+    <row r="616" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C616" s="25" t="s">
         <v>235</v>
       </c>
@@ -19241,7 +19319,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="617" spans="3:14">
+    <row r="617" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C617" s="25" t="s">
         <v>277</v>
       </c>
@@ -19252,7 +19330,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="618" spans="3:14">
+    <row r="618" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C618" s="25" t="s">
         <v>278</v>
       </c>
@@ -19263,31 +19341,31 @@
         <v>280</v>
       </c>
     </row>
-    <row r="619" spans="3:14">
+    <row r="619" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C619" s="25"/>
     </row>
-    <row r="620" spans="3:14">
+    <row r="620" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C620" s="25"/>
     </row>
-    <row r="621" spans="3:14">
+    <row r="621" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C621" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="622" spans="3:14">
+    <row r="622" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D622" s="2" t="s">
         <v>283</v>
       </c>
       <c r="E622" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="623" spans="3:14">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="623" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E623" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="624" spans="3:14">
+    <row r="624" spans="3:14" x14ac:dyDescent="0.2">
       <c r="F624" s="32" t="s">
         <v>9</v>
       </c>
@@ -19295,7 +19373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="625" spans="4:7">
+    <row r="625" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F625" s="32" t="s">
         <v>19</v>
       </c>
@@ -19303,7 +19381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="4:7">
+    <row r="626" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F626" s="32" t="s">
         <v>14</v>
       </c>
@@ -19311,7 +19389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="627" spans="4:7">
+    <row r="627" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F627" s="32" t="s">
         <v>16</v>
       </c>
@@ -19319,7 +19397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="4:7">
+    <row r="628" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F628" s="32" t="s">
         <v>17</v>
       </c>
@@ -19327,7 +19405,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="629" spans="4:7">
+    <row r="629" spans="4:7" x14ac:dyDescent="0.2">
       <c r="F629" s="32" t="s">
         <v>62</v>
       </c>
@@ -19335,7 +19413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="630" spans="4:7" s="31" customFormat="1">
+    <row r="630" spans="4:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E630" s="32"/>
       <c r="F630" s="32" t="s">
         <v>64</v>
@@ -19344,12 +19422,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="631" spans="4:7">
+    <row r="631" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D631" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="632" spans="4:7">
+    <row r="632" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E632" s="32" t="s">
         <v>9</v>
       </c>
@@ -19357,7 +19435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="633" spans="4:7">
+    <row r="633" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E633" s="32" t="s">
         <v>19</v>
       </c>
@@ -19365,7 +19443,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="634" spans="4:7">
+    <row r="634" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E634" s="32" t="s">
         <v>14</v>
       </c>
@@ -19373,7 +19451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="635" spans="4:7">
+    <row r="635" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E635" s="32" t="s">
         <v>16</v>
       </c>
@@ -19381,7 +19459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="4:7">
+    <row r="636" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E636" s="32" t="s">
         <v>17</v>
       </c>
@@ -19389,7 +19467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="637" spans="4:7">
+    <row r="637" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E637" s="32" t="s">
         <v>62</v>
       </c>
@@ -19397,7 +19475,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="638" spans="4:7">
+    <row r="638" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E638" s="32" t="s">
         <v>64</v>
       </c>
@@ -19405,16 +19483,16 @@
         <v>286</v>
       </c>
     </row>
-    <row r="639" spans="4:7" s="31" customFormat="1">
+    <row r="639" spans="4:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E639" s="32"/>
       <c r="F639" s="32"/>
     </row>
-    <row r="640" spans="4:7" s="31" customFormat="1">
+    <row r="640" spans="4:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D640" s="31" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="641" spans="4:6" s="31" customFormat="1">
+    <row r="641" spans="4:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E641" s="32" t="s">
         <v>9</v>
       </c>
@@ -19422,7 +19500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="642" spans="4:6" s="31" customFormat="1">
+    <row r="642" spans="4:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E642" s="32" t="s">
         <v>19</v>
       </c>
@@ -19430,7 +19508,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="643" spans="4:6" s="31" customFormat="1">
+    <row r="643" spans="4:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E643" s="32" t="s">
         <v>14</v>
       </c>
@@ -19438,7 +19516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="644" spans="4:6" s="31" customFormat="1">
+    <row r="644" spans="4:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E644" s="32" t="s">
         <v>16</v>
       </c>
@@ -19446,7 +19524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="4:6" s="31" customFormat="1">
+    <row r="645" spans="4:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E645" s="32" t="s">
         <v>17</v>
       </c>
@@ -19454,7 +19532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="646" spans="4:6" s="31" customFormat="1">
+    <row r="646" spans="4:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E646" s="32" t="s">
         <v>62</v>
       </c>
@@ -19462,7 +19540,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="647" spans="4:6" s="31" customFormat="1">
+    <row r="647" spans="4:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E647" s="32" t="s">
         <v>64</v>
       </c>
@@ -19470,16 +19548,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="648" spans="4:6">
+    <row r="648" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E648" s="31"/>
       <c r="F648" s="31"/>
     </row>
-    <row r="649" spans="4:6">
+    <row r="649" spans="4:6" x14ac:dyDescent="0.2">
       <c r="D649" s="51" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="650" spans="4:6">
+    <row r="650" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E650" s="32" t="s">
         <v>9</v>
       </c>
@@ -19487,7 +19565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="651" spans="4:6">
+    <row r="651" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E651" s="32" t="s">
         <v>19</v>
       </c>
@@ -19495,7 +19573,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="652" spans="4:6">
+    <row r="652" spans="4:6" x14ac:dyDescent="0.2">
       <c r="E652" s="32" t="s">
         <v>14</v>
       </c>
@@ -19503,7 +19581,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="653" spans="4:6" s="31" customFormat="1">
+    <row r="653" spans="4:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E653" s="32" t="s">
         <v>16</v>
       </c>
@@ -19511,7 +19589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="4:6" s="31" customFormat="1">
+    <row r="654" spans="4:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E654" s="32" t="s">
         <v>17</v>
       </c>
@@ -19519,15 +19597,15 @@
         <v>390</v>
       </c>
     </row>
-    <row r="655" spans="4:6" s="31" customFormat="1">
+    <row r="655" spans="4:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E655" s="32" t="s">
         <v>62</v>
       </c>
       <c r="F655" s="32" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="656" spans="4:6" s="31" customFormat="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="656" spans="4:6" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E656" s="32" t="s">
         <v>64</v>
       </c>
@@ -19535,15 +19613,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="658" spans="3:7">
+    <row r="658" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D658" s="2" t="s">
         <v>272</v>
       </c>
       <c r="E658" s="51" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="659" spans="3:7">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="659" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E659" s="51" t="s">
         <v>24</v>
       </c>
@@ -19554,7 +19632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="660" spans="3:7">
+    <row r="660" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F660" s="32" t="s">
         <v>19</v>
       </c>
@@ -19562,7 +19640,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="661" spans="3:7">
+    <row r="661" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F661" s="32" t="s">
         <v>14</v>
       </c>
@@ -19570,7 +19648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="662" spans="3:7">
+    <row r="662" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F662" s="32" t="s">
         <v>16</v>
       </c>
@@ -19578,7 +19656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="663" spans="3:7">
+    <row r="663" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F663" s="32" t="s">
         <v>17</v>
       </c>
@@ -19586,7 +19664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="664" spans="3:7">
+    <row r="664" spans="3:7" x14ac:dyDescent="0.2">
       <c r="F664" s="32" t="s">
         <v>62</v>
       </c>
@@ -19594,7 +19672,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="665" spans="3:7">
+    <row r="665" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C665" s="25"/>
       <c r="F665" s="32" t="s">
         <v>64</v>
@@ -19603,87 +19681,87 @@
         <v>65</v>
       </c>
     </row>
-    <row r="666" spans="3:7">
+    <row r="666" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C666" s="25" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="667" spans="3:7">
+    <row r="667" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C667" s="25"/>
       <c r="D667" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="668" spans="3:7">
+    <row r="668" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C668" s="25"/>
       <c r="D668" s="51" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="669" spans="3:7" s="51" customFormat="1">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="669" spans="3:7" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C669" s="25"/>
       <c r="D669" s="51" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="670" spans="3:7">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="670" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C670" s="25" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="671" spans="3:7">
+    <row r="671" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D671" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="672" spans="3:7">
+    <row r="672" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D672" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="673" spans="3:5">
+    <row r="673" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D673" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="674" spans="3:5">
+    <row r="674" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C674" s="2" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="675" spans="3:5">
+    <row r="675" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D675" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="676" spans="3:5" s="31" customFormat="1">
+    <row r="676" spans="3:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D676" s="31" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="677" spans="3:5" s="31" customFormat="1">
+    <row r="677" spans="3:5" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D677" s="31" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="678" spans="3:5">
+    <row r="678" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E678" s="31" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="679" spans="3:5">
+    <row r="679" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E679" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="680" spans="3:5">
+    <row r="680" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E680" s="2" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="681" spans="3:5">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="681" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D681" s="2" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -19695,32 +19773,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView topLeftCell="J16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G20" workbookViewId="0">
       <selection activeCell="K19" sqref="K19:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="7" max="7" width="57.375" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="57.33203125" customWidth="1"/>
     <col min="8" max="8" width="41" customWidth="1"/>
-    <col min="9" max="9" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46.125" customWidth="1"/>
-    <col min="11" max="11" width="20.375" customWidth="1"/>
-    <col min="12" max="12" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.1640625" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="66.5" customWidth="1"/>
-    <col min="14" max="14" width="21.875" customWidth="1"/>
+    <col min="14" max="14" width="21.83203125" customWidth="1"/>
     <col min="16" max="16" width="32" customWidth="1"/>
-    <col min="17" max="17" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="50" customFormat="1" ht="18">
+    <row r="1" spans="1:19" s="50" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>311</v>
       </c>
@@ -19777,7 +19855,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="38" customFormat="1" ht="51.75">
+    <row r="2" spans="1:19" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.2">
       <c r="A2" s="70" t="s">
         <v>363</v>
       </c>
@@ -19806,7 +19884,7 @@
         <v>358</v>
       </c>
       <c r="J2" s="42" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="K2" s="73" t="s">
         <v>331</v>
@@ -19833,7 +19911,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="38" customFormat="1" ht="86.25">
+    <row r="3" spans="1:19" s="38" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A3" s="70"/>
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
@@ -19846,7 +19924,7 @@
         <v>348</v>
       </c>
       <c r="J3" s="42" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="K3" s="73"/>
       <c r="L3" s="37" t="s">
@@ -19862,7 +19940,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="38" customFormat="1" ht="69">
+    <row r="4" spans="1:19" s="38" customFormat="1" ht="72" x14ac:dyDescent="0.2">
       <c r="A4" s="70"/>
       <c r="B4" s="70"/>
       <c r="C4" s="70"/>
@@ -19875,7 +19953,7 @@
         <v>349</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="73"/>
       <c r="L4" s="37" t="s">
@@ -19891,7 +19969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="38" customFormat="1" ht="98.45" customHeight="1">
+    <row r="5" spans="1:19" s="38" customFormat="1" ht="98.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="70"/>
       <c r="B5" s="70"/>
       <c r="C5" s="70"/>
@@ -19904,7 +19982,7 @@
         <v>350</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="K5" s="73"/>
       <c r="L5" s="37" t="s">
@@ -19920,7 +19998,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="38" customFormat="1" ht="51.75">
+    <row r="6" spans="1:19" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.2">
       <c r="A6" s="70"/>
       <c r="B6" s="70"/>
       <c r="C6" s="70"/>
@@ -19933,7 +20011,7 @@
         <v>351</v>
       </c>
       <c r="J6" s="42" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="K6" s="73"/>
       <c r="L6" s="37" t="s">
@@ -19949,7 +20027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="38" customFormat="1" ht="34.5">
+    <row r="7" spans="1:19" s="38" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A7" s="70"/>
       <c r="B7" s="70"/>
       <c r="C7" s="70"/>
@@ -19975,7 +20053,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="38" customFormat="1" ht="18">
+    <row r="8" spans="1:19" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="70"/>
       <c r="B8" s="70"/>
       <c r="C8" s="70"/>
@@ -19989,7 +20067,7 @@
         <v>356</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="N8" s="38" t="s">
         <v>367</v>
@@ -20004,7 +20082,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="38" customFormat="1" ht="18">
+    <row r="9" spans="1:19" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="70"/>
       <c r="B9" s="70"/>
       <c r="C9" s="70"/>
@@ -20018,7 +20096,7 @@
         <v>357</v>
       </c>
       <c r="M9" s="38" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="N9" s="38" t="s">
         <v>368</v>
@@ -20033,7 +20111,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="38" customFormat="1" ht="34.5">
+    <row r="10" spans="1:19" s="38" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A10" s="70"/>
       <c r="B10" s="70"/>
       <c r="C10" s="70"/>
@@ -20047,13 +20125,13 @@
         <v>364</v>
       </c>
       <c r="M10" s="40" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="N10" s="38" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="38" customFormat="1" ht="18">
+    <row r="11" spans="1:19" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="70"/>
       <c r="B11" s="70"/>
       <c r="C11" s="70"/>
@@ -20067,7 +20145,7 @@
         <v>359</v>
       </c>
       <c r="M11" s="38" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="N11" s="38" t="s">
         <v>360</v>
@@ -20076,7 +20154,7 @@
         <v>26</v>
       </c>
       <c r="P11" s="43" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="Q11" s="40" t="s">
         <v>377</v>
@@ -20085,7 +20163,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="38" customFormat="1" ht="86.25">
+    <row r="12" spans="1:19" s="38" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A12" s="70"/>
       <c r="B12" s="70"/>
       <c r="C12" s="70"/>
@@ -20101,7 +20179,7 @@
         <v>234</v>
       </c>
       <c r="M12" s="40" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="N12" s="38" t="s">
         <v>372</v>
@@ -20113,13 +20191,13 @@
         <v>370</v>
       </c>
       <c r="Q12" s="40" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="R12" s="40" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="38" customFormat="1" ht="51.75">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.2">
       <c r="A13" s="70"/>
       <c r="B13" s="70"/>
       <c r="C13" s="70"/>
@@ -20135,7 +20213,7 @@
         <v>269</v>
       </c>
       <c r="M13" s="40" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="N13" s="38" t="s">
         <v>371</v>
@@ -20153,7 +20231,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="38" customFormat="1" ht="17.25">
+    <row r="14" spans="1:19" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="70"/>
       <c r="B14" s="70"/>
       <c r="C14" s="70"/>
@@ -20169,7 +20247,7 @@
         <v>237</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="N14" s="38" t="s">
         <v>373</v>
@@ -20181,7 +20259,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="50" customFormat="1" ht="18">
+    <row r="18" spans="1:19" s="50" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
         <v>311</v>
       </c>
@@ -20238,7 +20316,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="38" customFormat="1" ht="69">
+    <row r="19" spans="1:19" s="38" customFormat="1" ht="72" x14ac:dyDescent="0.2">
       <c r="A19" s="70" t="s">
         <v>402</v>
       </c>
@@ -20265,7 +20343,7 @@
         <v>358</v>
       </c>
       <c r="J19" s="42" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="K19" s="73" t="s">
         <v>331</v>
@@ -20286,13 +20364,13 @@
         <v>378</v>
       </c>
       <c r="Q19" s="40" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="R19" s="38" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="38" customFormat="1" ht="51.75">
+    <row r="20" spans="1:19" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.2">
       <c r="A20" s="70"/>
       <c r="B20" s="70"/>
       <c r="C20" s="70"/>
@@ -20305,7 +20383,7 @@
         <v>348</v>
       </c>
       <c r="J20" s="42" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="K20" s="73"/>
       <c r="L20" s="37" t="s">
@@ -20321,7 +20399,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="38" customFormat="1" ht="51.75">
+    <row r="21" spans="1:19" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.2">
       <c r="A21" s="70"/>
       <c r="B21" s="70"/>
       <c r="C21" s="70"/>
@@ -20334,7 +20412,7 @@
         <v>349</v>
       </c>
       <c r="J21" s="42" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="K21" s="73"/>
       <c r="L21" s="37" t="s">
@@ -20350,7 +20428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="38" customFormat="1" ht="65.25" customHeight="1">
+    <row r="22" spans="1:19" s="38" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="70"/>
       <c r="B22" s="70"/>
       <c r="C22" s="70"/>
@@ -20363,7 +20441,7 @@
         <v>350</v>
       </c>
       <c r="J22" s="42" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="K22" s="73"/>
       <c r="L22" s="37" t="s">
@@ -20379,7 +20457,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="38" customFormat="1" ht="51.75">
+    <row r="23" spans="1:19" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.2">
       <c r="A23" s="70"/>
       <c r="B23" s="70"/>
       <c r="C23" s="70"/>
@@ -20392,7 +20470,7 @@
         <v>351</v>
       </c>
       <c r="J23" s="42" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="K23" s="73"/>
       <c r="L23" s="37" t="s">
@@ -20408,7 +20486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="38" customFormat="1" ht="18">
+    <row r="24" spans="1:19" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="70"/>
       <c r="B24" s="70"/>
       <c r="C24" s="70"/>
@@ -20425,7 +20503,7 @@
         <v>383</v>
       </c>
       <c r="M24" s="40" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="N24" s="38" t="s">
         <v>384</v>
@@ -20434,7 +20512,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="38" customFormat="1" ht="51.75">
+    <row r="25" spans="1:19" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.2">
       <c r="A25" s="70"/>
       <c r="B25" s="70"/>
       <c r="C25" s="70"/>
@@ -20448,7 +20526,7 @@
         <v>385</v>
       </c>
       <c r="M25" s="38" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="N25" s="38" t="s">
         <v>387</v>
@@ -20463,10 +20541,10 @@
         <v>422</v>
       </c>
       <c r="R25" s="40" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" s="38" customFormat="1" ht="18">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="70"/>
       <c r="B26" s="70"/>
       <c r="C26" s="70"/>
@@ -20480,7 +20558,7 @@
         <v>386</v>
       </c>
       <c r="M26" s="38" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="N26" s="38" t="s">
         <v>388</v>
@@ -20495,10 +20573,10 @@
         <v>423</v>
       </c>
       <c r="R26" s="38" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" s="38" customFormat="1" ht="34.5">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="38" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A27" s="70"/>
       <c r="B27" s="70"/>
       <c r="C27" s="70"/>
@@ -20512,7 +20590,7 @@
         <v>391</v>
       </c>
       <c r="M27" s="40" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="N27" s="38" t="s">
         <v>393</v>
@@ -20527,10 +20605,10 @@
         <v>425</v>
       </c>
       <c r="R27" s="38" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" s="38" customFormat="1" ht="34.5">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="38" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A28" s="70"/>
       <c r="B28" s="70"/>
       <c r="C28" s="70"/>
@@ -20559,10 +20637,10 @@
         <v>408</v>
       </c>
       <c r="R28" s="40" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" s="38" customFormat="1" ht="51.75">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.2">
       <c r="A29" s="70"/>
       <c r="B29" s="70"/>
       <c r="C29" s="70"/>
@@ -20576,7 +20654,7 @@
         <v>409</v>
       </c>
       <c r="M29" s="38" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="N29" s="38" t="s">
         <v>411</v>
@@ -20588,10 +20666,10 @@
         <v>412</v>
       </c>
       <c r="R29" s="40" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" s="38" customFormat="1" ht="103.5">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="38" customFormat="1" ht="108" x14ac:dyDescent="0.2">
       <c r="A30" s="70"/>
       <c r="B30" s="70"/>
       <c r="C30" s="70"/>
@@ -20607,7 +20685,7 @@
         <v>394</v>
       </c>
       <c r="M30" s="40" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="N30" s="38" t="s">
         <v>429</v>
@@ -20622,10 +20700,10 @@
         <v>430</v>
       </c>
       <c r="R30" s="40" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" s="38" customFormat="1" ht="86.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="38" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A31" s="70"/>
       <c r="B31" s="70"/>
       <c r="C31" s="70"/>
@@ -20656,10 +20734,10 @@
         <v>427</v>
       </c>
       <c r="R31" s="40" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" s="38" customFormat="1" ht="34.5">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="38" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A32" s="70"/>
       <c r="B32" s="70"/>
       <c r="C32" s="70"/>
@@ -20690,10 +20768,10 @@
         <v>420</v>
       </c>
       <c r="R32" s="40" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="38" customFormat="1" ht="34.9" customHeight="1">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="38" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="70"/>
       <c r="B33" s="70"/>
       <c r="C33" s="70"/>
@@ -20721,10 +20799,10 @@
         <v>403</v>
       </c>
       <c r="Q33" s="40" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="R33" s="40" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>

--- a/gd/副本内容设计/副本设计-火山、巢穴.xlsx
+++ b/gd/副本内容设计/副本设计-火山、巢穴.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="520" windowWidth="28800" windowHeight="17540" activeTab="3"/>
+    <workbookView xWindow="1960" yWindow="880" windowWidth="28800" windowHeight="17540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="730">
   <si>
     <t>怪物1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2990,6 +2990,9 @@
   </si>
   <si>
     <t>天火燎原：被动型，群体伤害，每个敌人分别判断身上是否附加火属性弱dot，如果有则造成双倍伤害（换一个effect）</t>
+  </si>
+  <si>
+    <t>是</t>
   </si>
 </sst>
 </file>
@@ -3557,17 +3560,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3580,6 +3574,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -13809,8 +13812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S681"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E452" sqref="E452"/>
+    <sheetView tabSelected="1" topLeftCell="A209" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="G229" sqref="G229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -15997,7 +16000,7 @@
         <v>17</v>
       </c>
       <c r="G228" s="52" t="s">
-        <v>26</v>
+        <v>729</v>
       </c>
     </row>
     <row r="229" spans="3:8" s="51" customFormat="1" x14ac:dyDescent="0.2">
@@ -19823,10 +19826,10 @@
       <c r="H1" s="46" t="s">
         <v>318</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="74" t="s">
         <v>319</v>
       </c>
-      <c r="J1" s="69"/>
+      <c r="J1" s="74"/>
       <c r="K1" s="46" t="s">
         <v>320</v>
       </c>
@@ -19856,28 +19859,28 @@
       </c>
     </row>
     <row r="2" spans="1:19" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="69" t="s">
         <v>363</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="69" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="69" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="69" t="s">
         <v>329</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="69" t="s">
         <v>330</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="69" t="s">
         <v>362</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="75" t="s">
         <v>382</v>
       </c>
       <c r="I2" s="41" t="s">
@@ -19886,7 +19889,7 @@
       <c r="J2" s="42" t="s">
         <v>634</v>
       </c>
-      <c r="K2" s="73" t="s">
+      <c r="K2" s="70" t="s">
         <v>331</v>
       </c>
       <c r="L2" s="37" t="s">
@@ -19912,21 +19915,21 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="38" customFormat="1" ht="90" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="72"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="76"/>
       <c r="I3" s="41" t="s">
         <v>348</v>
       </c>
       <c r="J3" s="42" t="s">
         <v>635</v>
       </c>
-      <c r="K3" s="73"/>
+      <c r="K3" s="70"/>
       <c r="L3" s="37" t="s">
         <v>335</v>
       </c>
@@ -19941,21 +19944,21 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="38" customFormat="1" ht="72" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="72"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="76"/>
       <c r="I4" s="41" t="s">
         <v>349</v>
       </c>
       <c r="J4" s="42" t="s">
         <v>642</v>
       </c>
-      <c r="K4" s="73"/>
+      <c r="K4" s="70"/>
       <c r="L4" s="37" t="s">
         <v>338</v>
       </c>
@@ -19970,21 +19973,21 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="38" customFormat="1" ht="98.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="72"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="76"/>
       <c r="I5" s="41" t="s">
         <v>350</v>
       </c>
       <c r="J5" s="42" t="s">
         <v>643</v>
       </c>
-      <c r="K5" s="73"/>
+      <c r="K5" s="70"/>
       <c r="L5" s="37" t="s">
         <v>340</v>
       </c>
@@ -19999,21 +20002,21 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="72"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="76"/>
       <c r="I6" s="41" t="s">
         <v>351</v>
       </c>
       <c r="J6" s="42" t="s">
         <v>636</v>
       </c>
-      <c r="K6" s="73"/>
+      <c r="K6" s="70"/>
       <c r="L6" s="37" t="s">
         <v>344</v>
       </c>
@@ -20028,16 +20031,16 @@
       </c>
     </row>
     <row r="7" spans="1:19" s="38" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="72"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="76"/>
       <c r="I7" s="39"/>
-      <c r="K7" s="74" t="s">
+      <c r="K7" s="71" t="s">
         <v>347</v>
       </c>
       <c r="L7" s="37" t="s">
@@ -20054,15 +20057,15 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="72"/>
-      <c r="K8" s="74"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="76"/>
+      <c r="K8" s="71"/>
       <c r="L8" s="37" t="s">
         <v>356</v>
       </c>
@@ -20083,15 +20086,15 @@
       </c>
     </row>
     <row r="9" spans="1:19" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="72"/>
-      <c r="K9" s="74"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="76"/>
+      <c r="K9" s="71"/>
       <c r="L9" s="37" t="s">
         <v>357</v>
       </c>
@@ -20112,15 +20115,15 @@
       </c>
     </row>
     <row r="10" spans="1:19" s="38" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="72"/>
-      <c r="K10" s="74"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="76"/>
+      <c r="K10" s="71"/>
       <c r="L10" s="37" t="s">
         <v>364</v>
       </c>
@@ -20132,15 +20135,15 @@
       </c>
     </row>
     <row r="11" spans="1:19" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="72"/>
-      <c r="K11" s="74"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="76"/>
+      <c r="K11" s="71"/>
       <c r="L11" s="37" t="s">
         <v>359</v>
       </c>
@@ -20164,15 +20167,15 @@
       </c>
     </row>
     <row r="12" spans="1:19" s="38" customFormat="1" ht="90" x14ac:dyDescent="0.2">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="72"/>
-      <c r="K12" s="73" t="s">
+      <c r="A12" s="69"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="76"/>
+      <c r="K12" s="70" t="s">
         <v>352</v>
       </c>
       <c r="L12" s="25" t="s">
@@ -20198,17 +20201,17 @@
       </c>
     </row>
     <row r="13" spans="1:19" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.2">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="73"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="70"/>
       <c r="L13" s="25" t="s">
         <v>269</v>
       </c>
@@ -20232,17 +20235,17 @@
       </c>
     </row>
     <row r="14" spans="1:19" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="73"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="70"/>
       <c r="L14" s="25" t="s">
         <v>237</v>
       </c>
@@ -20284,10 +20287,10 @@
       <c r="H18" s="46" t="s">
         <v>318</v>
       </c>
-      <c r="I18" s="69" t="s">
+      <c r="I18" s="74" t="s">
         <v>319</v>
       </c>
-      <c r="J18" s="69"/>
+      <c r="J18" s="74"/>
       <c r="K18" s="46" t="s">
         <v>320</v>
       </c>
@@ -20317,35 +20320,35 @@
       </c>
     </row>
     <row r="19" spans="1:19" s="38" customFormat="1" ht="72" x14ac:dyDescent="0.2">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="69" t="s">
         <v>402</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="69" t="s">
         <v>401</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="C19" s="69" t="s">
         <v>401</v>
       </c>
-      <c r="D19" s="70" t="s">
+      <c r="D19" s="69" t="s">
         <v>329</v>
       </c>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="F19" s="70" t="s">
+      <c r="F19" s="69" t="s">
         <v>330</v>
       </c>
-      <c r="G19" s="70" t="s">
+      <c r="G19" s="69" t="s">
         <v>424</v>
       </c>
-      <c r="H19" s="71"/>
+      <c r="H19" s="75"/>
       <c r="I19" s="41" t="s">
         <v>358</v>
       </c>
       <c r="J19" s="42" t="s">
         <v>637</v>
       </c>
-      <c r="K19" s="73" t="s">
+      <c r="K19" s="70" t="s">
         <v>331</v>
       </c>
       <c r="L19" s="37" t="s">
@@ -20371,21 +20374,21 @@
       </c>
     </row>
     <row r="20" spans="1:19" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.2">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="72"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="41" t="s">
         <v>348</v>
       </c>
       <c r="J20" s="42" t="s">
         <v>638</v>
       </c>
-      <c r="K20" s="73"/>
+      <c r="K20" s="70"/>
       <c r="L20" s="37" t="s">
         <v>335</v>
       </c>
@@ -20400,21 +20403,21 @@
       </c>
     </row>
     <row r="21" spans="1:19" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.2">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="72"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="76"/>
       <c r="I21" s="41" t="s">
         <v>349</v>
       </c>
       <c r="J21" s="42" t="s">
         <v>639</v>
       </c>
-      <c r="K21" s="73"/>
+      <c r="K21" s="70"/>
       <c r="L21" s="37" t="s">
         <v>338</v>
       </c>
@@ -20429,21 +20432,21 @@
       </c>
     </row>
     <row r="22" spans="1:19" s="38" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="70"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="72"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="41" t="s">
         <v>350</v>
       </c>
       <c r="J22" s="42" t="s">
         <v>640</v>
       </c>
-      <c r="K22" s="73"/>
+      <c r="K22" s="70"/>
       <c r="L22" s="37" t="s">
         <v>340</v>
       </c>
@@ -20458,21 +20461,21 @@
       </c>
     </row>
     <row r="23" spans="1:19" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.2">
-      <c r="A23" s="70"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="72"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="76"/>
       <c r="I23" s="41" t="s">
         <v>351</v>
       </c>
       <c r="J23" s="42" t="s">
         <v>641</v>
       </c>
-      <c r="K23" s="73"/>
+      <c r="K23" s="70"/>
       <c r="L23" s="37" t="s">
         <v>344</v>
       </c>
@@ -20487,16 +20490,16 @@
       </c>
     </row>
     <row r="24" spans="1:19" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="70"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="72"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="39"/>
-      <c r="K24" s="74" t="s">
+      <c r="K24" s="71" t="s">
         <v>347</v>
       </c>
       <c r="L24" s="37" t="s">
@@ -20513,15 +20516,15 @@
       </c>
     </row>
     <row r="25" spans="1:19" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.2">
-      <c r="A25" s="70"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="72"/>
-      <c r="K25" s="74"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="76"/>
+      <c r="K25" s="71"/>
       <c r="L25" s="37" t="s">
         <v>385</v>
       </c>
@@ -20545,15 +20548,15 @@
       </c>
     </row>
     <row r="26" spans="1:19" s="38" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="70"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="72"/>
-      <c r="K26" s="74"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="76"/>
+      <c r="K26" s="71"/>
       <c r="L26" s="37" t="s">
         <v>386</v>
       </c>
@@ -20577,15 +20580,15 @@
       </c>
     </row>
     <row r="27" spans="1:19" s="38" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A27" s="70"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="72"/>
-      <c r="K27" s="74"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="76"/>
+      <c r="K27" s="71"/>
       <c r="L27" s="37" t="s">
         <v>391</v>
       </c>
@@ -20609,15 +20612,15 @@
       </c>
     </row>
     <row r="28" spans="1:19" s="38" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A28" s="70"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="72"/>
-      <c r="K28" s="74"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="76"/>
+      <c r="K28" s="71"/>
       <c r="L28" s="37" t="s">
         <v>404</v>
       </c>
@@ -20641,15 +20644,15 @@
       </c>
     </row>
     <row r="29" spans="1:19" s="38" customFormat="1" ht="54" x14ac:dyDescent="0.2">
-      <c r="A29" s="70"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="72"/>
-      <c r="K29" s="74"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="76"/>
+      <c r="K29" s="71"/>
       <c r="L29" s="37" t="s">
         <v>409</v>
       </c>
@@ -20670,15 +20673,15 @@
       </c>
     </row>
     <row r="30" spans="1:19" s="38" customFormat="1" ht="108" x14ac:dyDescent="0.2">
-      <c r="A30" s="70"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="72"/>
-      <c r="K30" s="73" t="s">
+      <c r="A30" s="69"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="76"/>
+      <c r="K30" s="70" t="s">
         <v>352</v>
       </c>
       <c r="L30" s="25" t="s">
@@ -20704,17 +20707,17 @@
       </c>
     </row>
     <row r="31" spans="1:19" s="38" customFormat="1" ht="90" x14ac:dyDescent="0.2">
-      <c r="A31" s="70"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="73"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="70"/>
       <c r="L31" s="25" t="s">
         <v>396</v>
       </c>
@@ -20738,17 +20741,17 @@
       </c>
     </row>
     <row r="32" spans="1:19" s="38" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A32" s="70"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="73"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="70"/>
       <c r="L32" s="25" t="s">
         <v>281</v>
       </c>
@@ -20772,17 +20775,17 @@
       </c>
     </row>
     <row r="33" spans="1:18" s="38" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="70"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="73"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="70"/>
       <c r="L33" s="25" t="s">
         <v>279</v>
       </c>
@@ -20807,11 +20810,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A19:A33"/>
-    <mergeCell ref="B19:B33"/>
-    <mergeCell ref="C19:C33"/>
-    <mergeCell ref="D19:D33"/>
-    <mergeCell ref="E19:E33"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="C2:C14"/>
+    <mergeCell ref="D2:D14"/>
+    <mergeCell ref="E2:E14"/>
+    <mergeCell ref="F2:F14"/>
+    <mergeCell ref="G2:G14"/>
+    <mergeCell ref="H2:H14"/>
     <mergeCell ref="F19:F33"/>
     <mergeCell ref="K2:K6"/>
     <mergeCell ref="K7:K11"/>
@@ -20826,15 +20833,11 @@
     <mergeCell ref="K30:K33"/>
     <mergeCell ref="I31:I33"/>
     <mergeCell ref="J31:J33"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="B2:B14"/>
-    <mergeCell ref="C2:C14"/>
-    <mergeCell ref="D2:D14"/>
-    <mergeCell ref="E2:E14"/>
-    <mergeCell ref="F2:F14"/>
-    <mergeCell ref="G2:G14"/>
-    <mergeCell ref="H2:H14"/>
+    <mergeCell ref="A19:A33"/>
+    <mergeCell ref="B19:B33"/>
+    <mergeCell ref="C19:C33"/>
+    <mergeCell ref="D19:D33"/>
+    <mergeCell ref="E19:E33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
